--- a/storage/app/tests/other classifiers/adult.evaluation.xlsx
+++ b/storage/app/tests/other classifiers/adult.evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/other classifiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DEBD0FD2-8656-B343-87B3-1C01930743BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F7710B73-B2BE-1749-B48C-828C53B5C5F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{58B98C76-BB47-AE4F-936F-6E12AA973AD1}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AG266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/storage/app/tests/other classifiers/adult.evaluation.xlsx
+++ b/storage/app/tests/other classifiers/adult.evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusty/projects/diaspectrex-api/storage/app/tests/other classifiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F7710B73-B2BE-1749-B48C-828C53B5C5F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FDD02A13-B6A1-1841-B539-4CEC9FEEC758}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{58B98C76-BB47-AE4F-936F-6E12AA973AD1}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,19 +199,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5281D16-367E-2741-8E5D-69B99B902027}">
-  <dimension ref="A1:AG266"/>
+  <dimension ref="A1:AG115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="B88" zoomScale="69" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -741,7 +732,7 @@
       <c r="AF2" s="2">
         <v>0</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="6">
         <v>3</v>
       </c>
     </row>
@@ -842,7 +833,7 @@
       <c r="AF3" s="2">
         <v>0</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="6">
         <v>3</v>
       </c>
     </row>
@@ -943,7 +934,7 @@
       <c r="AF4" s="2">
         <v>0</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AG4" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1044,7 +1035,7 @@
       <c r="AF5" s="2">
         <v>0</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1145,7 +1136,7 @@
       <c r="AF6" s="2">
         <v>0</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AG6" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1246,7 +1237,7 @@
       <c r="AF7" s="2">
         <v>0</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1347,7 +1338,7 @@
       <c r="AF8" s="2">
         <v>0</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AG8" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1448,7 +1439,7 @@
       <c r="AF9" s="2">
         <v>0</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AG9" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1549,7 +1540,7 @@
       <c r="AF10" s="2">
         <v>0</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1650,7 +1641,7 @@
       <c r="AF11" s="2">
         <v>0</v>
       </c>
-      <c r="AG11" s="9">
+      <c r="AG11" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1751,7 +1742,7 @@
       <c r="AF12" s="2">
         <v>0</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1852,7 +1843,7 @@
       <c r="AF13" s="2">
         <v>0</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AG13" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1953,7 +1944,7 @@
       <c r="AF14" s="2">
         <v>0</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AG14" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2054,7 +2045,7 @@
       <c r="AF15" s="2">
         <v>0</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AG15" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2155,7 +2146,7 @@
       <c r="AF16" s="2">
         <v>0</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AG16" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2256,7 +2247,7 @@
       <c r="AF17" s="2">
         <v>0</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AG17" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2357,7 +2348,7 @@
       <c r="AF18" s="2">
         <v>0</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AG18" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2458,7 +2449,7 @@
       <c r="AF19" s="2">
         <v>0</v>
       </c>
-      <c r="AG19" s="9">
+      <c r="AG19" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2559,7 +2550,7 @@
       <c r="AF20" s="2">
         <v>0</v>
       </c>
-      <c r="AG20" s="9">
+      <c r="AG20" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2660,7 +2651,7 @@
       <c r="AF21" s="2">
         <v>0</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AG21" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2761,7 +2752,7 @@
       <c r="AF22" s="2">
         <v>0</v>
       </c>
-      <c r="AG22" s="9">
+      <c r="AG22" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2862,7 +2853,7 @@
       <c r="AF23" s="2">
         <v>0</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2963,7 +2954,7 @@
       <c r="AF24" s="2">
         <v>0</v>
       </c>
-      <c r="AG24" s="9">
+      <c r="AG24" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3064,7 +3055,7 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AG25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3165,7 +3156,7 @@
       <c r="AF26" s="3">
         <v>0</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AG26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3266,7 +3257,7 @@
       <c r="AF27" s="3">
         <v>0</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AG27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3367,7 +3358,7 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AG28" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3468,7 +3459,7 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AG29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3569,7 +3560,7 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AG30" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3670,7 +3661,7 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AG31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3771,7 +3762,7 @@
       <c r="AF32" s="3">
         <v>0</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AG32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3872,7 +3863,7 @@
       <c r="AF33" s="3">
         <v>0</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AG33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3973,7 +3964,7 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-      <c r="AG34" s="5">
+      <c r="AG34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4074,7 +4065,7 @@
       <c r="AF35" s="3">
         <v>0</v>
       </c>
-      <c r="AG35" s="5">
+      <c r="AG35" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4175,7 +4166,7 @@
       <c r="AF36" s="3">
         <v>0</v>
       </c>
-      <c r="AG36" s="5">
+      <c r="AG36" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4276,7 +4267,7 @@
       <c r="AF37" s="3">
         <v>0</v>
       </c>
-      <c r="AG37" s="5">
+      <c r="AG37" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4377,7 +4368,7 @@
       <c r="AF38" s="3">
         <v>0</v>
       </c>
-      <c r="AG38" s="5">
+      <c r="AG38" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4478,7 +4469,7 @@
       <c r="AF39" s="3">
         <v>0</v>
       </c>
-      <c r="AG39" s="5">
+      <c r="AG39" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4579,7 +4570,7 @@
       <c r="AF40" s="3">
         <v>0</v>
       </c>
-      <c r="AG40" s="5">
+      <c r="AG40" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4680,7 +4671,7 @@
       <c r="AF41" s="3">
         <v>0</v>
       </c>
-      <c r="AG41" s="5">
+      <c r="AG41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4781,7 +4772,7 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-      <c r="AG42" s="5">
+      <c r="AG42" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4882,7 +4873,7 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-      <c r="AG43" s="5">
+      <c r="AG43" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4983,7 +4974,7 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-      <c r="AG44" s="5">
+      <c r="AG44" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5084,7 +5075,7 @@
       <c r="AF45" s="3">
         <v>0</v>
       </c>
-      <c r="AG45" s="5">
+      <c r="AG45" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5185,7 +5176,7 @@
       <c r="AF46" s="3">
         <v>0</v>
       </c>
-      <c r="AG46" s="5">
+      <c r="AG46" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5286,7 +5277,7 @@
       <c r="AF47" s="3">
         <v>0</v>
       </c>
-      <c r="AG47" s="5">
+      <c r="AG47" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5387,7 +5378,7 @@
       <c r="AF48" s="3">
         <v>0</v>
       </c>
-      <c r="AG48" s="5">
+      <c r="AG48" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5488,7 +5479,7 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-      <c r="AG49" s="5">
+      <c r="AG49" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5589,7 +5580,7 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-      <c r="AG50" s="5">
+      <c r="AG50" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5690,7 +5681,7 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-      <c r="AG51" s="5">
+      <c r="AG51" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5791,7 +5782,7 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-      <c r="AG52" s="5">
+      <c r="AG52" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5892,7 +5883,7 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-      <c r="AG53" s="5">
+      <c r="AG53" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5993,7 +5984,7 @@
       <c r="AF54" s="3">
         <v>0</v>
       </c>
-      <c r="AG54" s="5">
+      <c r="AG54" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6094,7 +6085,7 @@
       <c r="AF55" s="3">
         <v>0</v>
       </c>
-      <c r="AG55" s="5">
+      <c r="AG55" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6195,7 +6186,7 @@
       <c r="AF56" s="3">
         <v>0</v>
       </c>
-      <c r="AG56" s="5">
+      <c r="AG56" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6296,7 +6287,7 @@
       <c r="AF57" s="3">
         <v>0</v>
       </c>
-      <c r="AG57" s="5">
+      <c r="AG57" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6397,7 +6388,7 @@
       <c r="AF58" s="3">
         <v>0</v>
       </c>
-      <c r="AG58" s="5">
+      <c r="AG58" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6498,7 +6489,7 @@
       <c r="AF59" s="3">
         <v>0</v>
       </c>
-      <c r="AG59" s="5">
+      <c r="AG59" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6599,7 +6590,7 @@
       <c r="AF60" s="3">
         <v>0</v>
       </c>
-      <c r="AG60" s="5">
+      <c r="AG60" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6700,7 +6691,7 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-      <c r="AG61" s="5">
+      <c r="AG61" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6801,7 +6792,7 @@
       <c r="AF62" s="3">
         <v>0</v>
       </c>
-      <c r="AG62" s="5">
+      <c r="AG62" s="4">
         <v>1</v>
       </c>
     </row>
@@ -6902,7 +6893,7 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-      <c r="AG63" s="5">
+      <c r="AG63" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7003,7 +6994,7 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-      <c r="AG64" s="5">
+      <c r="AG64" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7104,7 +7095,7 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-      <c r="AG65" s="5">
+      <c r="AG65" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7205,7 +7196,7 @@
       <c r="AF66" s="3">
         <v>0</v>
       </c>
-      <c r="AG66" s="5">
+      <c r="AG66" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7306,7 +7297,7 @@
       <c r="AF67" s="3">
         <v>0</v>
       </c>
-      <c r="AG67" s="5">
+      <c r="AG67" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7407,7 +7398,7 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-      <c r="AG68" s="5">
+      <c r="AG68" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7508,7 +7499,7 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-      <c r="AG69" s="5">
+      <c r="AG69" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7609,7 +7600,7 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-      <c r="AG70" s="5">
+      <c r="AG70" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7710,7 +7701,7 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-      <c r="AG71" s="5">
+      <c r="AG71" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7811,7 +7802,7 @@
       <c r="AF72" s="3">
         <v>0</v>
       </c>
-      <c r="AG72" s="5">
+      <c r="AG72" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7912,7 +7903,7 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-      <c r="AG73" s="5">
+      <c r="AG73" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8013,7 +8004,7 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-      <c r="AG74" s="5">
+      <c r="AG74" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8114,7 +8105,7 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-      <c r="AG75" s="5">
+      <c r="AG75" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8215,7 +8206,7 @@
       <c r="AF76" s="3">
         <v>0</v>
       </c>
-      <c r="AG76" s="5">
+      <c r="AG76" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8316,7 +8307,7 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-      <c r="AG77" s="5">
+      <c r="AG77" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8417,7 +8408,7 @@
       <c r="AF78" s="3">
         <v>0</v>
       </c>
-      <c r="AG78" s="5">
+      <c r="AG78" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8518,7 +8509,7 @@
       <c r="AF79" s="3">
         <v>0</v>
       </c>
-      <c r="AG79" s="5">
+      <c r="AG79" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8619,7 +8610,7 @@
       <c r="AF80" s="3">
         <v>0</v>
       </c>
-      <c r="AG80" s="5">
+      <c r="AG80" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8720,7 +8711,7 @@
       <c r="AF81" s="3">
         <v>0</v>
       </c>
-      <c r="AG81" s="5">
+      <c r="AG81" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8821,7 +8812,7 @@
       <c r="AF82" s="3">
         <v>0</v>
       </c>
-      <c r="AG82" s="5">
+      <c r="AG82" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8922,7 +8913,7 @@
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-      <c r="AG83" s="5">
+      <c r="AG83" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9023,7 +9014,7 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-      <c r="AG84" s="5">
+      <c r="AG84" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9124,7 +9115,7 @@
       <c r="AF85" s="1">
         <v>0</v>
       </c>
-      <c r="AG85" s="6">
+      <c r="AG85" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9225,7 +9216,7 @@
       <c r="AF86" s="1">
         <v>0</v>
       </c>
-      <c r="AG86" s="6">
+      <c r="AG86" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9326,7 +9317,7 @@
       <c r="AF87" s="1">
         <v>0</v>
       </c>
-      <c r="AG87" s="6">
+      <c r="AG87" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9427,7 +9418,7 @@
       <c r="AF88" s="1">
         <v>0</v>
       </c>
-      <c r="AG88" s="6">
+      <c r="AG88" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9528,7 +9519,7 @@
       <c r="AF89" s="1">
         <v>0</v>
       </c>
-      <c r="AG89" s="6">
+      <c r="AG89" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9629,7 +9620,7 @@
       <c r="AF90" s="1">
         <v>0</v>
       </c>
-      <c r="AG90" s="6">
+      <c r="AG90" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9730,7 +9721,7 @@
       <c r="AF91" s="1">
         <v>0</v>
       </c>
-      <c r="AG91" s="6">
+      <c r="AG91" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9831,7 +9822,7 @@
       <c r="AF92" s="1">
         <v>0</v>
       </c>
-      <c r="AG92" s="6">
+      <c r="AG92" s="5">
         <v>4</v>
       </c>
     </row>
@@ -9932,7 +9923,7 @@
       <c r="AF93" s="1">
         <v>0</v>
       </c>
-      <c r="AG93" s="6">
+      <c r="AG93" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10033,7 +10024,7 @@
       <c r="AF94" s="1">
         <v>0</v>
       </c>
-      <c r="AG94" s="6">
+      <c r="AG94" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10134,7 +10125,7 @@
       <c r="AF95" s="1">
         <v>0</v>
       </c>
-      <c r="AG95" s="6">
+      <c r="AG95" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10235,7 +10226,7 @@
       <c r="AF96" s="1">
         <v>0</v>
       </c>
-      <c r="AG96" s="6">
+      <c r="AG96" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10336,7 +10327,7 @@
       <c r="AF97" s="1">
         <v>0</v>
       </c>
-      <c r="AG97" s="6">
+      <c r="AG97" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10437,7 +10428,7 @@
       <c r="AF98" s="1">
         <v>0</v>
       </c>
-      <c r="AG98" s="6">
+      <c r="AG98" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10538,7 +10529,7 @@
       <c r="AF99" s="1">
         <v>0</v>
       </c>
-      <c r="AG99" s="6">
+      <c r="AG99" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10639,7 +10630,7 @@
       <c r="AF100" s="1">
         <v>0</v>
       </c>
-      <c r="AG100" s="6">
+      <c r="AG100" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10740,7 +10731,7 @@
       <c r="AF101" s="1">
         <v>0</v>
       </c>
-      <c r="AG101" s="6">
+      <c r="AG101" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10841,7 +10832,7 @@
       <c r="AF102" s="1">
         <v>0</v>
       </c>
-      <c r="AG102" s="6">
+      <c r="AG102" s="5">
         <v>4</v>
       </c>
     </row>
@@ -10942,7 +10933,7 @@
       <c r="AF103" s="1">
         <v>0</v>
       </c>
-      <c r="AG103" s="6">
+      <c r="AG103" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11043,7 +11034,7 @@
       <c r="AF104" s="1">
         <v>0</v>
       </c>
-      <c r="AG104" s="6">
+      <c r="AG104" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11144,7 +11135,7 @@
       <c r="AF105" s="1">
         <v>0</v>
       </c>
-      <c r="AG105" s="6">
+      <c r="AG105" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11245,7 +11236,7 @@
       <c r="AF106" s="1">
         <v>0</v>
       </c>
-      <c r="AG106" s="6">
+      <c r="AG106" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11346,7 +11337,7 @@
       <c r="AF107" s="1">
         <v>0</v>
       </c>
-      <c r="AG107" s="6">
+      <c r="AG107" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11447,7 +11438,7 @@
       <c r="AF108" s="1">
         <v>0</v>
       </c>
-      <c r="AG108" s="6">
+      <c r="AG108" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11548,7 +11539,7 @@
       <c r="AF109" s="1">
         <v>0</v>
       </c>
-      <c r="AG109" s="6">
+      <c r="AG109" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11649,7 +11640,7 @@
       <c r="AF110" s="1">
         <v>0</v>
       </c>
-      <c r="AG110" s="6">
+      <c r="AG110" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11750,7 +11741,7 @@
       <c r="AF111" s="1">
         <v>0</v>
       </c>
-      <c r="AG111" s="6">
+      <c r="AG111" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11851,7 +11842,7 @@
       <c r="AF112" s="1">
         <v>0</v>
       </c>
-      <c r="AG112" s="6">
+      <c r="AG112" s="5">
         <v>4</v>
       </c>
     </row>
@@ -11952,7 +11943,7 @@
       <c r="AF113" s="1">
         <v>0</v>
       </c>
-      <c r="AG113" s="6">
+      <c r="AG113" s="5">
         <v>4</v>
       </c>
     </row>
@@ -12053,7 +12044,7 @@
       <c r="AF114" s="1">
         <v>0</v>
       </c>
-      <c r="AG114" s="6">
+      <c r="AG114" s="5">
         <v>4</v>
       </c>
     </row>
@@ -12154,5294 +12145,9 @@
       <c r="AF115" s="1">
         <v>0</v>
       </c>
-      <c r="AG115" s="6">
+      <c r="AG115" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:33">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
-      <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
-      <c r="Z116" s="4"/>
-      <c r="AA116" s="4"/>
-      <c r="AB116" s="4"/>
-      <c r="AC116" s="4"/>
-      <c r="AD116" s="4"/>
-      <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-      <c r="AG116" s="7"/>
-    </row>
-    <row r="117" spans="1:33">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="7"/>
-    </row>
-    <row r="118" spans="1:33">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
-      <c r="AD118" s="4"/>
-      <c r="AE118" s="4"/>
-      <c r="AF118" s="4"/>
-      <c r="AG118" s="7"/>
-    </row>
-    <row r="119" spans="1:33">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
-      <c r="Z119" s="4"/>
-      <c r="AA119" s="4"/>
-      <c r="AB119" s="4"/>
-      <c r="AC119" s="4"/>
-      <c r="AD119" s="4"/>
-      <c r="AE119" s="4"/>
-      <c r="AF119" s="4"/>
-      <c r="AG119" s="7"/>
-    </row>
-    <row r="120" spans="1:33">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-      <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
-      <c r="AD120" s="4"/>
-      <c r="AE120" s="4"/>
-      <c r="AF120" s="4"/>
-      <c r="AG120" s="7"/>
-    </row>
-    <row r="121" spans="1:33">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
-      <c r="X121" s="4"/>
-      <c r="Y121" s="4"/>
-      <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-      <c r="AB121" s="4"/>
-      <c r="AC121" s="4"/>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4"/>
-      <c r="AF121" s="4"/>
-      <c r="AG121" s="7"/>
-    </row>
-    <row r="122" spans="1:33">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4"/>
-      <c r="AF122" s="4"/>
-      <c r="AG122" s="7"/>
-    </row>
-    <row r="123" spans="1:33">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
-      <c r="Y123" s="4"/>
-      <c r="Z123" s="4"/>
-      <c r="AA123" s="4"/>
-      <c r="AB123" s="4"/>
-      <c r="AC123" s="4"/>
-      <c r="AD123" s="4"/>
-      <c r="AE123" s="4"/>
-      <c r="AF123" s="4"/>
-      <c r="AG123" s="7"/>
-    </row>
-    <row r="124" spans="1:33">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
-      <c r="Y124" s="4"/>
-      <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-      <c r="AD124" s="4"/>
-      <c r="AE124" s="4"/>
-      <c r="AF124" s="4"/>
-      <c r="AG124" s="7"/>
-    </row>
-    <row r="125" spans="1:33">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4"/>
-      <c r="AF125" s="4"/>
-      <c r="AG125" s="7"/>
-    </row>
-    <row r="126" spans="1:33">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="4"/>
-      <c r="AF126" s="4"/>
-      <c r="AG126" s="7"/>
-    </row>
-    <row r="127" spans="1:33">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-      <c r="AE127" s="4"/>
-      <c r="AF127" s="4"/>
-      <c r="AG127" s="7"/>
-    </row>
-    <row r="128" spans="1:33">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4"/>
-      <c r="AF128" s="4"/>
-      <c r="AG128" s="7"/>
-    </row>
-    <row r="129" spans="1:33">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4"/>
-      <c r="AF129" s="4"/>
-      <c r="AG129" s="7"/>
-    </row>
-    <row r="130" spans="1:33">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-      <c r="AE130" s="4"/>
-      <c r="AF130" s="4"/>
-      <c r="AG130" s="7"/>
-    </row>
-    <row r="131" spans="1:33">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-      <c r="AE131" s="4"/>
-      <c r="AF131" s="4"/>
-      <c r="AG131" s="7"/>
-    </row>
-    <row r="132" spans="1:33">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-      <c r="AE132" s="4"/>
-      <c r="AF132" s="4"/>
-      <c r="AG132" s="7"/>
-    </row>
-    <row r="133" spans="1:33">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-      <c r="AE133" s="4"/>
-      <c r="AF133" s="4"/>
-      <c r="AG133" s="7"/>
-    </row>
-    <row r="134" spans="1:33">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
-      <c r="AD134" s="4"/>
-      <c r="AE134" s="4"/>
-      <c r="AF134" s="4"/>
-      <c r="AG134" s="7"/>
-    </row>
-    <row r="135" spans="1:33">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4"/>
-      <c r="AF135" s="4"/>
-      <c r="AG135" s="7"/>
-    </row>
-    <row r="136" spans="1:33">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-      <c r="AE136" s="4"/>
-      <c r="AF136" s="4"/>
-      <c r="AG136" s="7"/>
-    </row>
-    <row r="137" spans="1:33">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-      <c r="AE137" s="4"/>
-      <c r="AF137" s="4"/>
-      <c r="AG137" s="7"/>
-    </row>
-    <row r="138" spans="1:33">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-      <c r="AE138" s="4"/>
-      <c r="AF138" s="4"/>
-      <c r="AG138" s="7"/>
-    </row>
-    <row r="139" spans="1:33">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AB139" s="4"/>
-      <c r="AC139" s="4"/>
-      <c r="AD139" s="4"/>
-      <c r="AE139" s="4"/>
-      <c r="AF139" s="4"/>
-      <c r="AG139" s="7"/>
-    </row>
-    <row r="140" spans="1:33">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-      <c r="AE140" s="4"/>
-      <c r="AF140" s="4"/>
-      <c r="AG140" s="7"/>
-    </row>
-    <row r="141" spans="1:33">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-      <c r="AE141" s="4"/>
-      <c r="AF141" s="4"/>
-      <c r="AG141" s="7"/>
-    </row>
-    <row r="142" spans="1:33">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-      <c r="AE142" s="4"/>
-      <c r="AF142" s="4"/>
-      <c r="AG142" s="7"/>
-    </row>
-    <row r="143" spans="1:33">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-      <c r="AE143" s="4"/>
-      <c r="AF143" s="4"/>
-      <c r="AG143" s="7"/>
-    </row>
-    <row r="144" spans="1:33">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
-      <c r="AB144" s="4"/>
-      <c r="AC144" s="4"/>
-      <c r="AD144" s="4"/>
-      <c r="AE144" s="4"/>
-      <c r="AF144" s="4"/>
-      <c r="AG144" s="7"/>
-    </row>
-    <row r="145" spans="1:33">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-      <c r="AE145" s="4"/>
-      <c r="AF145" s="4"/>
-      <c r="AG145" s="7"/>
-    </row>
-    <row r="146" spans="1:33">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-      <c r="AB146" s="4"/>
-      <c r="AC146" s="4"/>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4"/>
-      <c r="AF146" s="4"/>
-      <c r="AG146" s="7"/>
-    </row>
-    <row r="147" spans="1:33">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="4"/>
-      <c r="AF147" s="4"/>
-      <c r="AG147" s="7"/>
-    </row>
-    <row r="148" spans="1:33">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AB148" s="4"/>
-      <c r="AC148" s="4"/>
-      <c r="AD148" s="4"/>
-      <c r="AE148" s="4"/>
-      <c r="AF148" s="4"/>
-      <c r="AG148" s="7"/>
-    </row>
-    <row r="149" spans="1:33">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
-      <c r="AA149" s="4"/>
-      <c r="AB149" s="4"/>
-      <c r="AC149" s="4"/>
-      <c r="AD149" s="4"/>
-      <c r="AE149" s="4"/>
-      <c r="AF149" s="4"/>
-      <c r="AG149" s="7"/>
-    </row>
-    <row r="150" spans="1:33">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-      <c r="AB150" s="4"/>
-      <c r="AC150" s="4"/>
-      <c r="AD150" s="4"/>
-      <c r="AE150" s="4"/>
-      <c r="AF150" s="4"/>
-      <c r="AG150" s="7"/>
-    </row>
-    <row r="151" spans="1:33">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
-      <c r="Y151" s="4"/>
-      <c r="Z151" s="4"/>
-      <c r="AA151" s="4"/>
-      <c r="AB151" s="4"/>
-      <c r="AC151" s="4"/>
-      <c r="AD151" s="4"/>
-      <c r="AE151" s="4"/>
-      <c r="AF151" s="4"/>
-      <c r="AG151" s="7"/>
-    </row>
-    <row r="152" spans="1:33">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
-      <c r="Y152" s="4"/>
-      <c r="Z152" s="4"/>
-      <c r="AA152" s="4"/>
-      <c r="AB152" s="4"/>
-      <c r="AC152" s="4"/>
-      <c r="AD152" s="4"/>
-      <c r="AE152" s="4"/>
-      <c r="AF152" s="4"/>
-      <c r="AG152" s="7"/>
-    </row>
-    <row r="153" spans="1:33">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
-      <c r="Y153" s="4"/>
-      <c r="Z153" s="4"/>
-      <c r="AA153" s="4"/>
-      <c r="AB153" s="4"/>
-      <c r="AC153" s="4"/>
-      <c r="AD153" s="4"/>
-      <c r="AE153" s="4"/>
-      <c r="AF153" s="4"/>
-      <c r="AG153" s="7"/>
-    </row>
-    <row r="154" spans="1:33">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
-      <c r="Y154" s="4"/>
-      <c r="Z154" s="4"/>
-      <c r="AA154" s="4"/>
-      <c r="AB154" s="4"/>
-      <c r="AC154" s="4"/>
-      <c r="AD154" s="4"/>
-      <c r="AE154" s="4"/>
-      <c r="AF154" s="4"/>
-      <c r="AG154" s="7"/>
-    </row>
-    <row r="155" spans="1:33">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
-      <c r="Y155" s="4"/>
-      <c r="Z155" s="4"/>
-      <c r="AA155" s="4"/>
-      <c r="AB155" s="4"/>
-      <c r="AC155" s="4"/>
-      <c r="AD155" s="4"/>
-      <c r="AE155" s="4"/>
-      <c r="AF155" s="4"/>
-      <c r="AG155" s="7"/>
-    </row>
-    <row r="156" spans="1:33">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="4"/>
-      <c r="X156" s="4"/>
-      <c r="Y156" s="4"/>
-      <c r="Z156" s="4"/>
-      <c r="AA156" s="4"/>
-      <c r="AB156" s="4"/>
-      <c r="AC156" s="4"/>
-      <c r="AD156" s="4"/>
-      <c r="AE156" s="4"/>
-      <c r="AF156" s="4"/>
-      <c r="AG156" s="7"/>
-    </row>
-    <row r="157" spans="1:33">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
-      <c r="S157" s="4"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
-      <c r="Y157" s="4"/>
-      <c r="Z157" s="4"/>
-      <c r="AA157" s="4"/>
-      <c r="AB157" s="4"/>
-      <c r="AC157" s="4"/>
-      <c r="AD157" s="4"/>
-      <c r="AE157" s="4"/>
-      <c r="AF157" s="4"/>
-      <c r="AG157" s="7"/>
-    </row>
-    <row r="158" spans="1:33">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-      <c r="S158" s="4"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
-      <c r="Y158" s="4"/>
-      <c r="Z158" s="4"/>
-      <c r="AA158" s="4"/>
-      <c r="AB158" s="4"/>
-      <c r="AC158" s="4"/>
-      <c r="AD158" s="4"/>
-      <c r="AE158" s="4"/>
-      <c r="AF158" s="4"/>
-      <c r="AG158" s="7"/>
-    </row>
-    <row r="159" spans="1:33">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
-      <c r="Z159" s="4"/>
-      <c r="AA159" s="4"/>
-      <c r="AB159" s="4"/>
-      <c r="AC159" s="4"/>
-      <c r="AD159" s="4"/>
-      <c r="AE159" s="4"/>
-      <c r="AF159" s="4"/>
-      <c r="AG159" s="7"/>
-    </row>
-    <row r="160" spans="1:33">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="4"/>
-      <c r="X160" s="4"/>
-      <c r="Y160" s="4"/>
-      <c r="Z160" s="4"/>
-      <c r="AA160" s="4"/>
-      <c r="AB160" s="4"/>
-      <c r="AC160" s="4"/>
-      <c r="AD160" s="4"/>
-      <c r="AE160" s="4"/>
-      <c r="AF160" s="4"/>
-      <c r="AG160" s="7"/>
-    </row>
-    <row r="161" spans="1:33">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-      <c r="S161" s="4"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="4"/>
-      <c r="X161" s="4"/>
-      <c r="Y161" s="4"/>
-      <c r="Z161" s="4"/>
-      <c r="AA161" s="4"/>
-      <c r="AB161" s="4"/>
-      <c r="AC161" s="4"/>
-      <c r="AD161" s="4"/>
-      <c r="AE161" s="4"/>
-      <c r="AF161" s="4"/>
-      <c r="AG161" s="7"/>
-    </row>
-    <row r="162" spans="1:33">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
-      <c r="X162" s="4"/>
-      <c r="Y162" s="4"/>
-      <c r="Z162" s="4"/>
-      <c r="AA162" s="4"/>
-      <c r="AB162" s="4"/>
-      <c r="AC162" s="4"/>
-      <c r="AD162" s="4"/>
-      <c r="AE162" s="4"/>
-      <c r="AF162" s="4"/>
-      <c r="AG162" s="7"/>
-    </row>
-    <row r="163" spans="1:33">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
-      <c r="Y163" s="4"/>
-      <c r="Z163" s="4"/>
-      <c r="AA163" s="4"/>
-      <c r="AB163" s="4"/>
-      <c r="AC163" s="4"/>
-      <c r="AD163" s="4"/>
-      <c r="AE163" s="4"/>
-      <c r="AF163" s="4"/>
-      <c r="AG163" s="7"/>
-    </row>
-    <row r="164" spans="1:33">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
-      <c r="Y164" s="4"/>
-      <c r="Z164" s="4"/>
-      <c r="AA164" s="4"/>
-      <c r="AB164" s="4"/>
-      <c r="AC164" s="4"/>
-      <c r="AD164" s="4"/>
-      <c r="AE164" s="4"/>
-      <c r="AF164" s="4"/>
-      <c r="AG164" s="7"/>
-    </row>
-    <row r="165" spans="1:33">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
-      <c r="Y165" s="4"/>
-      <c r="Z165" s="4"/>
-      <c r="AA165" s="4"/>
-      <c r="AB165" s="4"/>
-      <c r="AC165" s="4"/>
-      <c r="AD165" s="4"/>
-      <c r="AE165" s="4"/>
-      <c r="AF165" s="4"/>
-      <c r="AG165" s="7"/>
-    </row>
-    <row r="166" spans="1:33">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="4"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
-      <c r="Y166" s="4"/>
-      <c r="Z166" s="4"/>
-      <c r="AA166" s="4"/>
-      <c r="AB166" s="4"/>
-      <c r="AC166" s="4"/>
-      <c r="AD166" s="4"/>
-      <c r="AE166" s="4"/>
-      <c r="AF166" s="4"/>
-      <c r="AG166" s="7"/>
-    </row>
-    <row r="167" spans="1:33">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
-      <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
-      <c r="Y167" s="4"/>
-      <c r="Z167" s="4"/>
-      <c r="AA167" s="4"/>
-      <c r="AB167" s="4"/>
-      <c r="AC167" s="4"/>
-      <c r="AD167" s="4"/>
-      <c r="AE167" s="4"/>
-      <c r="AF167" s="4"/>
-      <c r="AG167" s="7"/>
-    </row>
-    <row r="168" spans="1:33">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
-      <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
-      <c r="AB168" s="4"/>
-      <c r="AC168" s="4"/>
-      <c r="AD168" s="4"/>
-      <c r="AE168" s="4"/>
-      <c r="AF168" s="4"/>
-      <c r="AG168" s="7"/>
-    </row>
-    <row r="169" spans="1:33">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
-      <c r="Y169" s="4"/>
-      <c r="Z169" s="4"/>
-      <c r="AA169" s="4"/>
-      <c r="AB169" s="4"/>
-      <c r="AC169" s="4"/>
-      <c r="AD169" s="4"/>
-      <c r="AE169" s="4"/>
-      <c r="AF169" s="4"/>
-      <c r="AG169" s="7"/>
-    </row>
-    <row r="170" spans="1:33">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
-      <c r="Y170" s="4"/>
-      <c r="Z170" s="4"/>
-      <c r="AA170" s="4"/>
-      <c r="AB170" s="4"/>
-      <c r="AC170" s="4"/>
-      <c r="AD170" s="4"/>
-      <c r="AE170" s="4"/>
-      <c r="AF170" s="4"/>
-      <c r="AG170" s="7"/>
-    </row>
-    <row r="171" spans="1:33">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
-      <c r="Y171" s="4"/>
-      <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
-      <c r="AB171" s="4"/>
-      <c r="AC171" s="4"/>
-      <c r="AD171" s="4"/>
-      <c r="AE171" s="4"/>
-      <c r="AF171" s="4"/>
-      <c r="AG171" s="7"/>
-    </row>
-    <row r="172" spans="1:33">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-      <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
-      <c r="Y172" s="4"/>
-      <c r="Z172" s="4"/>
-      <c r="AA172" s="4"/>
-      <c r="AB172" s="4"/>
-      <c r="AC172" s="4"/>
-      <c r="AD172" s="4"/>
-      <c r="AE172" s="4"/>
-      <c r="AF172" s="4"/>
-      <c r="AG172" s="7"/>
-    </row>
-    <row r="173" spans="1:33">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="4"/>
-      <c r="Z173" s="4"/>
-      <c r="AA173" s="4"/>
-      <c r="AB173" s="4"/>
-      <c r="AC173" s="4"/>
-      <c r="AD173" s="4"/>
-      <c r="AE173" s="4"/>
-      <c r="AF173" s="4"/>
-      <c r="AG173" s="7"/>
-    </row>
-    <row r="174" spans="1:33">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
-      <c r="Y174" s="4"/>
-      <c r="Z174" s="4"/>
-      <c r="AA174" s="4"/>
-      <c r="AB174" s="4"/>
-      <c r="AC174" s="4"/>
-      <c r="AD174" s="4"/>
-      <c r="AE174" s="4"/>
-      <c r="AF174" s="4"/>
-      <c r="AG174" s="7"/>
-    </row>
-    <row r="175" spans="1:33">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
-      <c r="S175" s="4"/>
-      <c r="T175" s="4"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
-      <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
-      <c r="Y175" s="4"/>
-      <c r="Z175" s="4"/>
-      <c r="AA175" s="4"/>
-      <c r="AB175" s="4"/>
-      <c r="AC175" s="4"/>
-      <c r="AD175" s="4"/>
-      <c r="AE175" s="4"/>
-      <c r="AF175" s="4"/>
-      <c r="AG175" s="7"/>
-    </row>
-    <row r="176" spans="1:33">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
-      <c r="S176" s="4"/>
-      <c r="T176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
-      <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
-      <c r="Z176" s="4"/>
-      <c r="AA176" s="4"/>
-      <c r="AB176" s="4"/>
-      <c r="AC176" s="4"/>
-      <c r="AD176" s="4"/>
-      <c r="AE176" s="4"/>
-      <c r="AF176" s="4"/>
-      <c r="AG176" s="7"/>
-    </row>
-    <row r="177" spans="1:33">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-      <c r="P177" s="4"/>
-      <c r="Q177" s="4"/>
-      <c r="R177" s="4"/>
-      <c r="S177" s="4"/>
-      <c r="T177" s="4"/>
-      <c r="U177" s="4"/>
-      <c r="V177" s="4"/>
-      <c r="W177" s="4"/>
-      <c r="X177" s="4"/>
-      <c r="Y177" s="4"/>
-      <c r="Z177" s="4"/>
-      <c r="AA177" s="4"/>
-      <c r="AB177" s="4"/>
-      <c r="AC177" s="4"/>
-      <c r="AD177" s="4"/>
-      <c r="AE177" s="4"/>
-      <c r="AF177" s="4"/>
-      <c r="AG177" s="7"/>
-    </row>
-    <row r="178" spans="1:33">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
-      <c r="S178" s="4"/>
-      <c r="T178" s="4"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
-      <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
-      <c r="Y178" s="4"/>
-      <c r="Z178" s="4"/>
-      <c r="AA178" s="4"/>
-      <c r="AB178" s="4"/>
-      <c r="AC178" s="4"/>
-      <c r="AD178" s="4"/>
-      <c r="AE178" s="4"/>
-      <c r="AF178" s="4"/>
-      <c r="AG178" s="7"/>
-    </row>
-    <row r="179" spans="1:33">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
-      <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
-      <c r="S179" s="4"/>
-      <c r="T179" s="4"/>
-      <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
-      <c r="W179" s="4"/>
-      <c r="X179" s="4"/>
-      <c r="Y179" s="4"/>
-      <c r="Z179" s="4"/>
-      <c r="AA179" s="4"/>
-      <c r="AB179" s="4"/>
-      <c r="AC179" s="4"/>
-      <c r="AD179" s="4"/>
-      <c r="AE179" s="4"/>
-      <c r="AF179" s="4"/>
-      <c r="AG179" s="7"/>
-    </row>
-    <row r="180" spans="1:33">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-      <c r="P180" s="4"/>
-      <c r="Q180" s="4"/>
-      <c r="R180" s="4"/>
-      <c r="S180" s="4"/>
-      <c r="T180" s="4"/>
-      <c r="U180" s="4"/>
-      <c r="V180" s="4"/>
-      <c r="W180" s="4"/>
-      <c r="X180" s="4"/>
-      <c r="Y180" s="4"/>
-      <c r="Z180" s="4"/>
-      <c r="AA180" s="4"/>
-      <c r="AB180" s="4"/>
-      <c r="AC180" s="4"/>
-      <c r="AD180" s="4"/>
-      <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
-      <c r="AG180" s="7"/>
-    </row>
-    <row r="181" spans="1:33">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
-      <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
-      <c r="S181" s="4"/>
-      <c r="T181" s="4"/>
-      <c r="U181" s="4"/>
-      <c r="V181" s="4"/>
-      <c r="W181" s="4"/>
-      <c r="X181" s="4"/>
-      <c r="Y181" s="4"/>
-      <c r="Z181" s="4"/>
-      <c r="AA181" s="4"/>
-      <c r="AB181" s="4"/>
-      <c r="AC181" s="4"/>
-      <c r="AD181" s="4"/>
-      <c r="AE181" s="4"/>
-      <c r="AF181" s="4"/>
-      <c r="AG181" s="7"/>
-    </row>
-    <row r="182" spans="1:33">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
-      <c r="S182" s="4"/>
-      <c r="T182" s="4"/>
-      <c r="U182" s="4"/>
-      <c r="V182" s="4"/>
-      <c r="W182" s="4"/>
-      <c r="X182" s="4"/>
-      <c r="Y182" s="4"/>
-      <c r="Z182" s="4"/>
-      <c r="AA182" s="4"/>
-      <c r="AB182" s="4"/>
-      <c r="AC182" s="4"/>
-      <c r="AD182" s="4"/>
-      <c r="AE182" s="4"/>
-      <c r="AF182" s="4"/>
-      <c r="AG182" s="7"/>
-    </row>
-    <row r="183" spans="1:33">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-      <c r="P183" s="4"/>
-      <c r="Q183" s="4"/>
-      <c r="R183" s="4"/>
-      <c r="S183" s="4"/>
-      <c r="T183" s="4"/>
-      <c r="U183" s="4"/>
-      <c r="V183" s="4"/>
-      <c r="W183" s="4"/>
-      <c r="X183" s="4"/>
-      <c r="Y183" s="4"/>
-      <c r="Z183" s="4"/>
-      <c r="AA183" s="4"/>
-      <c r="AB183" s="4"/>
-      <c r="AC183" s="4"/>
-      <c r="AD183" s="4"/>
-      <c r="AE183" s="4"/>
-      <c r="AF183" s="4"/>
-      <c r="AG183" s="7"/>
-    </row>
-    <row r="184" spans="1:33">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-      <c r="M184" s="4"/>
-      <c r="N184" s="4"/>
-      <c r="O184" s="4"/>
-      <c r="P184" s="4"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
-      <c r="S184" s="4"/>
-      <c r="T184" s="4"/>
-      <c r="U184" s="4"/>
-      <c r="V184" s="4"/>
-      <c r="W184" s="4"/>
-      <c r="X184" s="4"/>
-      <c r="Y184" s="4"/>
-      <c r="Z184" s="4"/>
-      <c r="AA184" s="4"/>
-      <c r="AB184" s="4"/>
-      <c r="AC184" s="4"/>
-      <c r="AD184" s="4"/>
-      <c r="AE184" s="4"/>
-      <c r="AF184" s="4"/>
-      <c r="AG184" s="7"/>
-    </row>
-    <row r="185" spans="1:33">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4"/>
-      <c r="P185" s="4"/>
-      <c r="Q185" s="4"/>
-      <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
-      <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
-      <c r="Y185" s="4"/>
-      <c r="Z185" s="4"/>
-      <c r="AA185" s="4"/>
-      <c r="AB185" s="4"/>
-      <c r="AC185" s="4"/>
-      <c r="AD185" s="4"/>
-      <c r="AE185" s="4"/>
-      <c r="AF185" s="4"/>
-      <c r="AG185" s="7"/>
-    </row>
-    <row r="186" spans="1:33">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-      <c r="M186" s="4"/>
-      <c r="N186" s="4"/>
-      <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
-      <c r="Q186" s="4"/>
-      <c r="R186" s="4"/>
-      <c r="S186" s="4"/>
-      <c r="T186" s="4"/>
-      <c r="U186" s="4"/>
-      <c r="V186" s="4"/>
-      <c r="W186" s="4"/>
-      <c r="X186" s="4"/>
-      <c r="Y186" s="4"/>
-      <c r="Z186" s="4"/>
-      <c r="AA186" s="4"/>
-      <c r="AB186" s="4"/>
-      <c r="AC186" s="4"/>
-      <c r="AD186" s="4"/>
-      <c r="AE186" s="4"/>
-      <c r="AF186" s="4"/>
-      <c r="AG186" s="7"/>
-    </row>
-    <row r="187" spans="1:33">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
-      <c r="N187" s="4"/>
-      <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
-      <c r="Q187" s="4"/>
-      <c r="R187" s="4"/>
-      <c r="S187" s="4"/>
-      <c r="T187" s="4"/>
-      <c r="U187" s="4"/>
-      <c r="V187" s="4"/>
-      <c r="W187" s="4"/>
-      <c r="X187" s="4"/>
-      <c r="Y187" s="4"/>
-      <c r="Z187" s="4"/>
-      <c r="AA187" s="4"/>
-      <c r="AB187" s="4"/>
-      <c r="AC187" s="4"/>
-      <c r="AD187" s="4"/>
-      <c r="AE187" s="4"/>
-      <c r="AF187" s="4"/>
-      <c r="AG187" s="7"/>
-    </row>
-    <row r="188" spans="1:33">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
-      <c r="N188" s="4"/>
-      <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
-      <c r="S188" s="4"/>
-      <c r="T188" s="4"/>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
-      <c r="W188" s="4"/>
-      <c r="X188" s="4"/>
-      <c r="Y188" s="4"/>
-      <c r="Z188" s="4"/>
-      <c r="AA188" s="4"/>
-      <c r="AB188" s="4"/>
-      <c r="AC188" s="4"/>
-      <c r="AD188" s="4"/>
-      <c r="AE188" s="4"/>
-      <c r="AF188" s="4"/>
-      <c r="AG188" s="7"/>
-    </row>
-    <row r="189" spans="1:33">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
-      <c r="N189" s="4"/>
-      <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4"/>
-      <c r="S189" s="4"/>
-      <c r="T189" s="4"/>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
-      <c r="W189" s="4"/>
-      <c r="X189" s="4"/>
-      <c r="Y189" s="4"/>
-      <c r="Z189" s="4"/>
-      <c r="AA189" s="4"/>
-      <c r="AB189" s="4"/>
-      <c r="AC189" s="4"/>
-      <c r="AD189" s="4"/>
-      <c r="AE189" s="4"/>
-      <c r="AF189" s="4"/>
-      <c r="AG189" s="7"/>
-    </row>
-    <row r="190" spans="1:33">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
-      <c r="N190" s="4"/>
-      <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
-      <c r="Q190" s="4"/>
-      <c r="R190" s="4"/>
-      <c r="S190" s="4"/>
-      <c r="T190" s="4"/>
-      <c r="U190" s="4"/>
-      <c r="V190" s="4"/>
-      <c r="W190" s="4"/>
-      <c r="X190" s="4"/>
-      <c r="Y190" s="4"/>
-      <c r="Z190" s="4"/>
-      <c r="AA190" s="4"/>
-      <c r="AB190" s="4"/>
-      <c r="AC190" s="4"/>
-      <c r="AD190" s="4"/>
-      <c r="AE190" s="4"/>
-      <c r="AF190" s="4"/>
-      <c r="AG190" s="7"/>
-    </row>
-    <row r="191" spans="1:33">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
-      <c r="N191" s="4"/>
-      <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
-      <c r="S191" s="4"/>
-      <c r="T191" s="4"/>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
-      <c r="W191" s="4"/>
-      <c r="X191" s="4"/>
-      <c r="Y191" s="4"/>
-      <c r="Z191" s="4"/>
-      <c r="AA191" s="4"/>
-      <c r="AB191" s="4"/>
-      <c r="AC191" s="4"/>
-      <c r="AD191" s="4"/>
-      <c r="AE191" s="4"/>
-      <c r="AF191" s="4"/>
-      <c r="AG191" s="7"/>
-    </row>
-    <row r="192" spans="1:33">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-      <c r="N192" s="4"/>
-      <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
-      <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
-      <c r="S192" s="4"/>
-      <c r="T192" s="4"/>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
-      <c r="W192" s="4"/>
-      <c r="X192" s="4"/>
-      <c r="Y192" s="4"/>
-      <c r="Z192" s="4"/>
-      <c r="AA192" s="4"/>
-      <c r="AB192" s="4"/>
-      <c r="AC192" s="4"/>
-      <c r="AD192" s="4"/>
-      <c r="AE192" s="4"/>
-      <c r="AF192" s="4"/>
-      <c r="AG192" s="7"/>
-    </row>
-    <row r="193" spans="1:33">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-      <c r="N193" s="4"/>
-      <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
-      <c r="Q193" s="4"/>
-      <c r="R193" s="4"/>
-      <c r="S193" s="4"/>
-      <c r="T193" s="4"/>
-      <c r="U193" s="4"/>
-      <c r="V193" s="4"/>
-      <c r="W193" s="4"/>
-      <c r="X193" s="4"/>
-      <c r="Y193" s="4"/>
-      <c r="Z193" s="4"/>
-      <c r="AA193" s="4"/>
-      <c r="AB193" s="4"/>
-      <c r="AC193" s="4"/>
-      <c r="AD193" s="4"/>
-      <c r="AE193" s="4"/>
-      <c r="AF193" s="4"/>
-      <c r="AG193" s="7"/>
-    </row>
-    <row r="194" spans="1:33">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="8"/>
-      <c r="S194" s="8"/>
-      <c r="T194" s="8"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="8"/>
-      <c r="X194" s="8"/>
-      <c r="Y194" s="8"/>
-      <c r="Z194" s="8"/>
-      <c r="AA194" s="8"/>
-      <c r="AB194" s="8"/>
-      <c r="AC194" s="8"/>
-      <c r="AD194" s="8"/>
-      <c r="AE194" s="8"/>
-      <c r="AF194" s="8"/>
-      <c r="AG194" s="7"/>
-    </row>
-    <row r="195" spans="1:33">
-      <c r="A195" s="8"/>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-      <c r="N195" s="8"/>
-      <c r="O195" s="8"/>
-      <c r="P195" s="8"/>
-      <c r="Q195" s="8"/>
-      <c r="R195" s="8"/>
-      <c r="S195" s="8"/>
-      <c r="T195" s="8"/>
-      <c r="U195" s="8"/>
-      <c r="V195" s="8"/>
-      <c r="W195" s="8"/>
-      <c r="X195" s="8"/>
-      <c r="Y195" s="8"/>
-      <c r="Z195" s="8"/>
-      <c r="AA195" s="8"/>
-      <c r="AB195" s="8"/>
-      <c r="AC195" s="8"/>
-      <c r="AD195" s="8"/>
-      <c r="AE195" s="8"/>
-      <c r="AF195" s="8"/>
-      <c r="AG195" s="7"/>
-    </row>
-    <row r="196" spans="1:33">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="8"/>
-      <c r="P196" s="8"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="8"/>
-      <c r="S196" s="8"/>
-      <c r="T196" s="8"/>
-      <c r="U196" s="8"/>
-      <c r="V196" s="8"/>
-      <c r="W196" s="8"/>
-      <c r="X196" s="8"/>
-      <c r="Y196" s="8"/>
-      <c r="Z196" s="8"/>
-      <c r="AA196" s="8"/>
-      <c r="AB196" s="8"/>
-      <c r="AC196" s="8"/>
-      <c r="AD196" s="8"/>
-      <c r="AE196" s="8"/>
-      <c r="AF196" s="8"/>
-      <c r="AG196" s="7"/>
-    </row>
-    <row r="197" spans="1:33">
-      <c r="A197" s="8"/>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
-      <c r="K197" s="8"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-      <c r="P197" s="8"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="8"/>
-      <c r="S197" s="8"/>
-      <c r="T197" s="8"/>
-      <c r="U197" s="8"/>
-      <c r="V197" s="8"/>
-      <c r="W197" s="8"/>
-      <c r="X197" s="8"/>
-      <c r="Y197" s="8"/>
-      <c r="Z197" s="8"/>
-      <c r="AA197" s="8"/>
-      <c r="AB197" s="8"/>
-      <c r="AC197" s="8"/>
-      <c r="AD197" s="8"/>
-      <c r="AE197" s="8"/>
-      <c r="AF197" s="8"/>
-      <c r="AG197" s="7"/>
-    </row>
-    <row r="198" spans="1:33">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
-      <c r="K198" s="8"/>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-      <c r="P198" s="8"/>
-      <c r="Q198" s="8"/>
-      <c r="R198" s="8"/>
-      <c r="S198" s="8"/>
-      <c r="T198" s="8"/>
-      <c r="U198" s="8"/>
-      <c r="V198" s="8"/>
-      <c r="W198" s="8"/>
-      <c r="X198" s="8"/>
-      <c r="Y198" s="8"/>
-      <c r="Z198" s="8"/>
-      <c r="AA198" s="8"/>
-      <c r="AB198" s="8"/>
-      <c r="AC198" s="8"/>
-      <c r="AD198" s="8"/>
-      <c r="AE198" s="8"/>
-      <c r="AF198" s="8"/>
-      <c r="AG198" s="7"/>
-    </row>
-    <row r="199" spans="1:33">
-      <c r="A199" s="8"/>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-      <c r="N199" s="8"/>
-      <c r="O199" s="8"/>
-      <c r="P199" s="8"/>
-      <c r="Q199" s="8"/>
-      <c r="R199" s="8"/>
-      <c r="S199" s="8"/>
-      <c r="T199" s="8"/>
-      <c r="U199" s="8"/>
-      <c r="V199" s="8"/>
-      <c r="W199" s="8"/>
-      <c r="X199" s="8"/>
-      <c r="Y199" s="8"/>
-      <c r="Z199" s="8"/>
-      <c r="AA199" s="8"/>
-      <c r="AB199" s="8"/>
-      <c r="AC199" s="8"/>
-      <c r="AD199" s="8"/>
-      <c r="AE199" s="8"/>
-      <c r="AF199" s="8"/>
-      <c r="AG199" s="7"/>
-    </row>
-    <row r="200" spans="1:33">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
-      <c r="K200" s="8"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
-      <c r="N200" s="8"/>
-      <c r="O200" s="8"/>
-      <c r="P200" s="8"/>
-      <c r="Q200" s="8"/>
-      <c r="R200" s="8"/>
-      <c r="S200" s="8"/>
-      <c r="T200" s="8"/>
-      <c r="U200" s="8"/>
-      <c r="V200" s="8"/>
-      <c r="W200" s="8"/>
-      <c r="X200" s="8"/>
-      <c r="Y200" s="8"/>
-      <c r="Z200" s="8"/>
-      <c r="AA200" s="8"/>
-      <c r="AB200" s="8"/>
-      <c r="AC200" s="8"/>
-      <c r="AD200" s="8"/>
-      <c r="AE200" s="8"/>
-      <c r="AF200" s="8"/>
-      <c r="AG200" s="7"/>
-    </row>
-    <row r="201" spans="1:33">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="8"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="8"/>
-      <c r="P201" s="8"/>
-      <c r="Q201" s="8"/>
-      <c r="R201" s="8"/>
-      <c r="S201" s="8"/>
-      <c r="T201" s="8"/>
-      <c r="U201" s="8"/>
-      <c r="V201" s="8"/>
-      <c r="W201" s="8"/>
-      <c r="X201" s="8"/>
-      <c r="Y201" s="8"/>
-      <c r="Z201" s="8"/>
-      <c r="AA201" s="8"/>
-      <c r="AB201" s="8"/>
-      <c r="AC201" s="8"/>
-      <c r="AD201" s="8"/>
-      <c r="AE201" s="8"/>
-      <c r="AF201" s="8"/>
-      <c r="AG201" s="7"/>
-    </row>
-    <row r="202" spans="1:33">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
-      <c r="K202" s="8"/>
-      <c r="L202" s="8"/>
-      <c r="M202" s="8"/>
-      <c r="N202" s="8"/>
-      <c r="O202" s="8"/>
-      <c r="P202" s="8"/>
-      <c r="Q202" s="8"/>
-      <c r="R202" s="8"/>
-      <c r="S202" s="8"/>
-      <c r="T202" s="8"/>
-      <c r="U202" s="8"/>
-      <c r="V202" s="8"/>
-      <c r="W202" s="8"/>
-      <c r="X202" s="8"/>
-      <c r="Y202" s="8"/>
-      <c r="Z202" s="8"/>
-      <c r="AA202" s="8"/>
-      <c r="AB202" s="8"/>
-      <c r="AC202" s="8"/>
-      <c r="AD202" s="8"/>
-      <c r="AE202" s="8"/>
-      <c r="AF202" s="8"/>
-      <c r="AG202" s="7"/>
-    </row>
-    <row r="203" spans="1:33">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
-      <c r="K203" s="8"/>
-      <c r="L203" s="8"/>
-      <c r="M203" s="8"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="8"/>
-      <c r="P203" s="8"/>
-      <c r="Q203" s="8"/>
-      <c r="R203" s="8"/>
-      <c r="S203" s="8"/>
-      <c r="T203" s="8"/>
-      <c r="U203" s="8"/>
-      <c r="V203" s="8"/>
-      <c r="W203" s="8"/>
-      <c r="X203" s="8"/>
-      <c r="Y203" s="8"/>
-      <c r="Z203" s="8"/>
-      <c r="AA203" s="8"/>
-      <c r="AB203" s="8"/>
-      <c r="AC203" s="8"/>
-      <c r="AD203" s="8"/>
-      <c r="AE203" s="8"/>
-      <c r="AF203" s="8"/>
-      <c r="AG203" s="7"/>
-    </row>
-    <row r="204" spans="1:33">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
-      <c r="K204" s="8"/>
-      <c r="L204" s="8"/>
-      <c r="M204" s="8"/>
-      <c r="N204" s="8"/>
-      <c r="O204" s="8"/>
-      <c r="P204" s="8"/>
-      <c r="Q204" s="8"/>
-      <c r="R204" s="8"/>
-      <c r="S204" s="8"/>
-      <c r="T204" s="8"/>
-      <c r="U204" s="8"/>
-      <c r="V204" s="8"/>
-      <c r="W204" s="8"/>
-      <c r="X204" s="8"/>
-      <c r="Y204" s="8"/>
-      <c r="Z204" s="8"/>
-      <c r="AA204" s="8"/>
-      <c r="AB204" s="8"/>
-      <c r="AC204" s="8"/>
-      <c r="AD204" s="8"/>
-      <c r="AE204" s="8"/>
-      <c r="AF204" s="8"/>
-      <c r="AG204" s="7"/>
-    </row>
-    <row r="205" spans="1:33">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-      <c r="P205" s="8"/>
-      <c r="Q205" s="8"/>
-      <c r="R205" s="8"/>
-      <c r="S205" s="8"/>
-      <c r="T205" s="8"/>
-      <c r="U205" s="8"/>
-      <c r="V205" s="8"/>
-      <c r="W205" s="8"/>
-      <c r="X205" s="8"/>
-      <c r="Y205" s="8"/>
-      <c r="Z205" s="8"/>
-      <c r="AA205" s="8"/>
-      <c r="AB205" s="8"/>
-      <c r="AC205" s="8"/>
-      <c r="AD205" s="8"/>
-      <c r="AE205" s="8"/>
-      <c r="AF205" s="8"/>
-      <c r="AG205" s="7"/>
-    </row>
-    <row r="206" spans="1:33">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
-      <c r="L206" s="8"/>
-      <c r="M206" s="8"/>
-      <c r="N206" s="8"/>
-      <c r="O206" s="8"/>
-      <c r="P206" s="8"/>
-      <c r="Q206" s="8"/>
-      <c r="R206" s="8"/>
-      <c r="S206" s="8"/>
-      <c r="T206" s="8"/>
-      <c r="U206" s="8"/>
-      <c r="V206" s="8"/>
-      <c r="W206" s="8"/>
-      <c r="X206" s="8"/>
-      <c r="Y206" s="8"/>
-      <c r="Z206" s="8"/>
-      <c r="AA206" s="8"/>
-      <c r="AB206" s="8"/>
-      <c r="AC206" s="8"/>
-      <c r="AD206" s="8"/>
-      <c r="AE206" s="8"/>
-      <c r="AF206" s="8"/>
-      <c r="AG206" s="7"/>
-    </row>
-    <row r="207" spans="1:33">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
-      <c r="L207" s="8"/>
-      <c r="M207" s="8"/>
-      <c r="N207" s="8"/>
-      <c r="O207" s="8"/>
-      <c r="P207" s="8"/>
-      <c r="Q207" s="8"/>
-      <c r="R207" s="8"/>
-      <c r="S207" s="8"/>
-      <c r="T207" s="8"/>
-      <c r="U207" s="8"/>
-      <c r="V207" s="8"/>
-      <c r="W207" s="8"/>
-      <c r="X207" s="8"/>
-      <c r="Y207" s="8"/>
-      <c r="Z207" s="8"/>
-      <c r="AA207" s="8"/>
-      <c r="AB207" s="8"/>
-      <c r="AC207" s="8"/>
-      <c r="AD207" s="8"/>
-      <c r="AE207" s="8"/>
-      <c r="AF207" s="8"/>
-      <c r="AG207" s="7"/>
-    </row>
-    <row r="208" spans="1:33">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="8"/>
-      <c r="M208" s="8"/>
-      <c r="N208" s="8"/>
-      <c r="O208" s="8"/>
-      <c r="P208" s="8"/>
-      <c r="Q208" s="8"/>
-      <c r="R208" s="8"/>
-      <c r="S208" s="8"/>
-      <c r="T208" s="8"/>
-      <c r="U208" s="8"/>
-      <c r="V208" s="8"/>
-      <c r="W208" s="8"/>
-      <c r="X208" s="8"/>
-      <c r="Y208" s="8"/>
-      <c r="Z208" s="8"/>
-      <c r="AA208" s="8"/>
-      <c r="AB208" s="8"/>
-      <c r="AC208" s="8"/>
-      <c r="AD208" s="8"/>
-      <c r="AE208" s="8"/>
-      <c r="AF208" s="8"/>
-      <c r="AG208" s="7"/>
-    </row>
-    <row r="209" spans="1:33">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
-      <c r="K209" s="8"/>
-      <c r="L209" s="8"/>
-      <c r="M209" s="8"/>
-      <c r="N209" s="8"/>
-      <c r="O209" s="8"/>
-      <c r="P209" s="8"/>
-      <c r="Q209" s="8"/>
-      <c r="R209" s="8"/>
-      <c r="S209" s="8"/>
-      <c r="T209" s="8"/>
-      <c r="U209" s="8"/>
-      <c r="V209" s="8"/>
-      <c r="W209" s="8"/>
-      <c r="X209" s="8"/>
-      <c r="Y209" s="8"/>
-      <c r="Z209" s="8"/>
-      <c r="AA209" s="8"/>
-      <c r="AB209" s="8"/>
-      <c r="AC209" s="8"/>
-      <c r="AD209" s="8"/>
-      <c r="AE209" s="8"/>
-      <c r="AF209" s="8"/>
-      <c r="AG209" s="7"/>
-    </row>
-    <row r="210" spans="1:33">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="8"/>
-      <c r="M210" s="8"/>
-      <c r="N210" s="8"/>
-      <c r="O210" s="8"/>
-      <c r="P210" s="8"/>
-      <c r="Q210" s="8"/>
-      <c r="R210" s="8"/>
-      <c r="S210" s="8"/>
-      <c r="T210" s="8"/>
-      <c r="U210" s="8"/>
-      <c r="V210" s="8"/>
-      <c r="W210" s="8"/>
-      <c r="X210" s="8"/>
-      <c r="Y210" s="8"/>
-      <c r="Z210" s="8"/>
-      <c r="AA210" s="8"/>
-      <c r="AB210" s="8"/>
-      <c r="AC210" s="8"/>
-      <c r="AD210" s="8"/>
-      <c r="AE210" s="8"/>
-      <c r="AF210" s="8"/>
-      <c r="AG210" s="7"/>
-    </row>
-    <row r="211" spans="1:33">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-      <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
-      <c r="K211" s="8"/>
-      <c r="L211" s="8"/>
-      <c r="M211" s="8"/>
-      <c r="N211" s="8"/>
-      <c r="O211" s="8"/>
-      <c r="P211" s="8"/>
-      <c r="Q211" s="8"/>
-      <c r="R211" s="8"/>
-      <c r="S211" s="8"/>
-      <c r="T211" s="8"/>
-      <c r="U211" s="8"/>
-      <c r="V211" s="8"/>
-      <c r="W211" s="8"/>
-      <c r="X211" s="8"/>
-      <c r="Y211" s="8"/>
-      <c r="Z211" s="8"/>
-      <c r="AA211" s="8"/>
-      <c r="AB211" s="8"/>
-      <c r="AC211" s="8"/>
-      <c r="AD211" s="8"/>
-      <c r="AE211" s="8"/>
-      <c r="AF211" s="8"/>
-      <c r="AG211" s="7"/>
-    </row>
-    <row r="212" spans="1:33">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-      <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="8"/>
-      <c r="M212" s="8"/>
-      <c r="N212" s="8"/>
-      <c r="O212" s="8"/>
-      <c r="P212" s="8"/>
-      <c r="Q212" s="8"/>
-      <c r="R212" s="8"/>
-      <c r="S212" s="8"/>
-      <c r="T212" s="8"/>
-      <c r="U212" s="8"/>
-      <c r="V212" s="8"/>
-      <c r="W212" s="8"/>
-      <c r="X212" s="8"/>
-      <c r="Y212" s="8"/>
-      <c r="Z212" s="8"/>
-      <c r="AA212" s="8"/>
-      <c r="AB212" s="8"/>
-      <c r="AC212" s="8"/>
-      <c r="AD212" s="8"/>
-      <c r="AE212" s="8"/>
-      <c r="AF212" s="8"/>
-      <c r="AG212" s="7"/>
-    </row>
-    <row r="213" spans="1:33">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-      <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
-      <c r="M213" s="8"/>
-      <c r="N213" s="8"/>
-      <c r="O213" s="8"/>
-      <c r="P213" s="8"/>
-      <c r="Q213" s="8"/>
-      <c r="R213" s="8"/>
-      <c r="S213" s="8"/>
-      <c r="T213" s="8"/>
-      <c r="U213" s="8"/>
-      <c r="V213" s="8"/>
-      <c r="W213" s="8"/>
-      <c r="X213" s="8"/>
-      <c r="Y213" s="8"/>
-      <c r="Z213" s="8"/>
-      <c r="AA213" s="8"/>
-      <c r="AB213" s="8"/>
-      <c r="AC213" s="8"/>
-      <c r="AD213" s="8"/>
-      <c r="AE213" s="8"/>
-      <c r="AF213" s="8"/>
-      <c r="AG213" s="7"/>
-    </row>
-    <row r="214" spans="1:33">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-      <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
-      <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
-      <c r="N214" s="8"/>
-      <c r="O214" s="8"/>
-      <c r="P214" s="8"/>
-      <c r="Q214" s="8"/>
-      <c r="R214" s="8"/>
-      <c r="S214" s="8"/>
-      <c r="T214" s="8"/>
-      <c r="U214" s="8"/>
-      <c r="V214" s="8"/>
-      <c r="W214" s="8"/>
-      <c r="X214" s="8"/>
-      <c r="Y214" s="8"/>
-      <c r="Z214" s="8"/>
-      <c r="AA214" s="8"/>
-      <c r="AB214" s="8"/>
-      <c r="AC214" s="8"/>
-      <c r="AD214" s="8"/>
-      <c r="AE214" s="8"/>
-      <c r="AF214" s="8"/>
-      <c r="AG214" s="7"/>
-    </row>
-    <row r="215" spans="1:33">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="8"/>
-      <c r="M215" s="8"/>
-      <c r="N215" s="8"/>
-      <c r="O215" s="8"/>
-      <c r="P215" s="8"/>
-      <c r="Q215" s="8"/>
-      <c r="R215" s="8"/>
-      <c r="S215" s="8"/>
-      <c r="T215" s="8"/>
-      <c r="U215" s="8"/>
-      <c r="V215" s="8"/>
-      <c r="W215" s="8"/>
-      <c r="X215" s="8"/>
-      <c r="Y215" s="8"/>
-      <c r="Z215" s="8"/>
-      <c r="AA215" s="8"/>
-      <c r="AB215" s="8"/>
-      <c r="AC215" s="8"/>
-      <c r="AD215" s="8"/>
-      <c r="AE215" s="8"/>
-      <c r="AF215" s="8"/>
-      <c r="AG215" s="7"/>
-    </row>
-    <row r="216" spans="1:33">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-      <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
-      <c r="K216" s="8"/>
-      <c r="L216" s="8"/>
-      <c r="M216" s="8"/>
-      <c r="N216" s="8"/>
-      <c r="O216" s="8"/>
-      <c r="P216" s="8"/>
-      <c r="Q216" s="8"/>
-      <c r="R216" s="8"/>
-      <c r="S216" s="8"/>
-      <c r="T216" s="8"/>
-      <c r="U216" s="8"/>
-      <c r="V216" s="8"/>
-      <c r="W216" s="8"/>
-      <c r="X216" s="8"/>
-      <c r="Y216" s="8"/>
-      <c r="Z216" s="8"/>
-      <c r="AA216" s="8"/>
-      <c r="AB216" s="8"/>
-      <c r="AC216" s="8"/>
-      <c r="AD216" s="8"/>
-      <c r="AE216" s="8"/>
-      <c r="AF216" s="8"/>
-      <c r="AG216" s="7"/>
-    </row>
-    <row r="217" spans="1:33">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-      <c r="K217" s="8"/>
-      <c r="L217" s="8"/>
-      <c r="M217" s="8"/>
-      <c r="N217" s="8"/>
-      <c r="O217" s="8"/>
-      <c r="P217" s="8"/>
-      <c r="Q217" s="8"/>
-      <c r="R217" s="8"/>
-      <c r="S217" s="8"/>
-      <c r="T217" s="8"/>
-      <c r="U217" s="8"/>
-      <c r="V217" s="8"/>
-      <c r="W217" s="8"/>
-      <c r="X217" s="8"/>
-      <c r="Y217" s="8"/>
-      <c r="Z217" s="8"/>
-      <c r="AA217" s="8"/>
-      <c r="AB217" s="8"/>
-      <c r="AC217" s="8"/>
-      <c r="AD217" s="8"/>
-      <c r="AE217" s="8"/>
-      <c r="AF217" s="8"/>
-      <c r="AG217" s="7"/>
-    </row>
-    <row r="218" spans="1:33">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-      <c r="K218" s="8"/>
-      <c r="L218" s="8"/>
-      <c r="M218" s="8"/>
-      <c r="N218" s="8"/>
-      <c r="O218" s="8"/>
-      <c r="P218" s="8"/>
-      <c r="Q218" s="8"/>
-      <c r="R218" s="8"/>
-      <c r="S218" s="8"/>
-      <c r="T218" s="8"/>
-      <c r="U218" s="8"/>
-      <c r="V218" s="8"/>
-      <c r="W218" s="8"/>
-      <c r="X218" s="8"/>
-      <c r="Y218" s="8"/>
-      <c r="Z218" s="8"/>
-      <c r="AA218" s="8"/>
-      <c r="AB218" s="8"/>
-      <c r="AC218" s="8"/>
-      <c r="AD218" s="8"/>
-      <c r="AE218" s="8"/>
-      <c r="AF218" s="8"/>
-      <c r="AG218" s="7"/>
-    </row>
-    <row r="219" spans="1:33">
-      <c r="A219" s="8"/>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-      <c r="K219" s="8"/>
-      <c r="L219" s="8"/>
-      <c r="M219" s="8"/>
-      <c r="N219" s="8"/>
-      <c r="O219" s="8"/>
-      <c r="P219" s="8"/>
-      <c r="Q219" s="8"/>
-      <c r="R219" s="8"/>
-      <c r="S219" s="8"/>
-      <c r="T219" s="8"/>
-      <c r="U219" s="8"/>
-      <c r="V219" s="8"/>
-      <c r="W219" s="8"/>
-      <c r="X219" s="8"/>
-      <c r="Y219" s="8"/>
-      <c r="Z219" s="8"/>
-      <c r="AA219" s="8"/>
-      <c r="AB219" s="8"/>
-      <c r="AC219" s="8"/>
-      <c r="AD219" s="8"/>
-      <c r="AE219" s="8"/>
-      <c r="AF219" s="8"/>
-      <c r="AG219" s="7"/>
-    </row>
-    <row r="220" spans="1:33">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-      <c r="K220" s="8"/>
-      <c r="L220" s="8"/>
-      <c r="M220" s="8"/>
-      <c r="N220" s="8"/>
-      <c r="O220" s="8"/>
-      <c r="P220" s="8"/>
-      <c r="Q220" s="8"/>
-      <c r="R220" s="8"/>
-      <c r="S220" s="8"/>
-      <c r="T220" s="8"/>
-      <c r="U220" s="8"/>
-      <c r="V220" s="8"/>
-      <c r="W220" s="8"/>
-      <c r="X220" s="8"/>
-      <c r="Y220" s="8"/>
-      <c r="Z220" s="8"/>
-      <c r="AA220" s="8"/>
-      <c r="AB220" s="8"/>
-      <c r="AC220" s="8"/>
-      <c r="AD220" s="8"/>
-      <c r="AE220" s="8"/>
-      <c r="AF220" s="8"/>
-      <c r="AG220" s="7"/>
-    </row>
-    <row r="221" spans="1:33">
-      <c r="A221" s="8"/>
-      <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8"/>
-      <c r="M221" s="8"/>
-      <c r="N221" s="8"/>
-      <c r="O221" s="8"/>
-      <c r="P221" s="8"/>
-      <c r="Q221" s="8"/>
-      <c r="R221" s="8"/>
-      <c r="S221" s="8"/>
-      <c r="T221" s="8"/>
-      <c r="U221" s="8"/>
-      <c r="V221" s="8"/>
-      <c r="W221" s="8"/>
-      <c r="X221" s="8"/>
-      <c r="Y221" s="8"/>
-      <c r="Z221" s="8"/>
-      <c r="AA221" s="8"/>
-      <c r="AB221" s="8"/>
-      <c r="AC221" s="8"/>
-      <c r="AD221" s="8"/>
-      <c r="AE221" s="8"/>
-      <c r="AF221" s="8"/>
-      <c r="AG221" s="7"/>
-    </row>
-    <row r="222" spans="1:33">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="8"/>
-      <c r="M222" s="8"/>
-      <c r="N222" s="8"/>
-      <c r="O222" s="8"/>
-      <c r="P222" s="8"/>
-      <c r="Q222" s="8"/>
-      <c r="R222" s="8"/>
-      <c r="S222" s="8"/>
-      <c r="T222" s="8"/>
-      <c r="U222" s="8"/>
-      <c r="V222" s="8"/>
-      <c r="W222" s="8"/>
-      <c r="X222" s="8"/>
-      <c r="Y222" s="8"/>
-      <c r="Z222" s="8"/>
-      <c r="AA222" s="8"/>
-      <c r="AB222" s="8"/>
-      <c r="AC222" s="8"/>
-      <c r="AD222" s="8"/>
-      <c r="AE222" s="8"/>
-      <c r="AF222" s="8"/>
-      <c r="AG222" s="7"/>
-    </row>
-    <row r="223" spans="1:33">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-      <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="8"/>
-      <c r="M223" s="8"/>
-      <c r="N223" s="8"/>
-      <c r="O223" s="8"/>
-      <c r="P223" s="8"/>
-      <c r="Q223" s="8"/>
-      <c r="R223" s="8"/>
-      <c r="S223" s="8"/>
-      <c r="T223" s="8"/>
-      <c r="U223" s="8"/>
-      <c r="V223" s="8"/>
-      <c r="W223" s="8"/>
-      <c r="X223" s="8"/>
-      <c r="Y223" s="8"/>
-      <c r="Z223" s="8"/>
-      <c r="AA223" s="8"/>
-      <c r="AB223" s="8"/>
-      <c r="AC223" s="8"/>
-      <c r="AD223" s="8"/>
-      <c r="AE223" s="8"/>
-      <c r="AF223" s="8"/>
-      <c r="AG223" s="7"/>
-    </row>
-    <row r="224" spans="1:33">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-      <c r="I224" s="8"/>
-      <c r="J224" s="8"/>
-      <c r="K224" s="8"/>
-      <c r="L224" s="8"/>
-      <c r="M224" s="8"/>
-      <c r="N224" s="8"/>
-      <c r="O224" s="8"/>
-      <c r="P224" s="8"/>
-      <c r="Q224" s="8"/>
-      <c r="R224" s="8"/>
-      <c r="S224" s="8"/>
-      <c r="T224" s="8"/>
-      <c r="U224" s="8"/>
-      <c r="V224" s="8"/>
-      <c r="W224" s="8"/>
-      <c r="X224" s="8"/>
-      <c r="Y224" s="8"/>
-      <c r="Z224" s="8"/>
-      <c r="AA224" s="8"/>
-      <c r="AB224" s="8"/>
-      <c r="AC224" s="8"/>
-      <c r="AD224" s="8"/>
-      <c r="AE224" s="8"/>
-      <c r="AF224" s="8"/>
-      <c r="AG224" s="7"/>
-    </row>
-    <row r="225" spans="1:33">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-      <c r="I225" s="8"/>
-      <c r="J225" s="8"/>
-      <c r="K225" s="8"/>
-      <c r="L225" s="8"/>
-      <c r="M225" s="8"/>
-      <c r="N225" s="8"/>
-      <c r="O225" s="8"/>
-      <c r="P225" s="8"/>
-      <c r="Q225" s="8"/>
-      <c r="R225" s="8"/>
-      <c r="S225" s="8"/>
-      <c r="T225" s="8"/>
-      <c r="U225" s="8"/>
-      <c r="V225" s="8"/>
-      <c r="W225" s="8"/>
-      <c r="X225" s="8"/>
-      <c r="Y225" s="8"/>
-      <c r="Z225" s="8"/>
-      <c r="AA225" s="8"/>
-      <c r="AB225" s="8"/>
-      <c r="AC225" s="8"/>
-      <c r="AD225" s="8"/>
-      <c r="AE225" s="8"/>
-      <c r="AF225" s="8"/>
-      <c r="AG225" s="7"/>
-    </row>
-    <row r="226" spans="1:33">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-      <c r="I226" s="8"/>
-      <c r="J226" s="8"/>
-      <c r="K226" s="8"/>
-      <c r="L226" s="8"/>
-      <c r="M226" s="8"/>
-      <c r="N226" s="8"/>
-      <c r="O226" s="8"/>
-      <c r="P226" s="8"/>
-      <c r="Q226" s="8"/>
-      <c r="R226" s="8"/>
-      <c r="S226" s="8"/>
-      <c r="T226" s="8"/>
-      <c r="U226" s="8"/>
-      <c r="V226" s="8"/>
-      <c r="W226" s="8"/>
-      <c r="X226" s="8"/>
-      <c r="Y226" s="8"/>
-      <c r="Z226" s="8"/>
-      <c r="AA226" s="8"/>
-      <c r="AB226" s="8"/>
-      <c r="AC226" s="8"/>
-      <c r="AD226" s="8"/>
-      <c r="AE226" s="8"/>
-      <c r="AF226" s="8"/>
-      <c r="AG226" s="7"/>
-    </row>
-    <row r="227" spans="1:33">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
-      <c r="K227" s="8"/>
-      <c r="L227" s="8"/>
-      <c r="M227" s="8"/>
-      <c r="N227" s="8"/>
-      <c r="O227" s="8"/>
-      <c r="P227" s="8"/>
-      <c r="Q227" s="8"/>
-      <c r="R227" s="8"/>
-      <c r="S227" s="8"/>
-      <c r="T227" s="8"/>
-      <c r="U227" s="8"/>
-      <c r="V227" s="8"/>
-      <c r="W227" s="8"/>
-      <c r="X227" s="8"/>
-      <c r="Y227" s="8"/>
-      <c r="Z227" s="8"/>
-      <c r="AA227" s="8"/>
-      <c r="AB227" s="8"/>
-      <c r="AC227" s="8"/>
-      <c r="AD227" s="8"/>
-      <c r="AE227" s="8"/>
-      <c r="AF227" s="8"/>
-      <c r="AG227" s="7"/>
-    </row>
-    <row r="228" spans="1:33">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
-      <c r="M228" s="8"/>
-      <c r="N228" s="8"/>
-      <c r="O228" s="8"/>
-      <c r="P228" s="8"/>
-      <c r="Q228" s="8"/>
-      <c r="R228" s="8"/>
-      <c r="S228" s="8"/>
-      <c r="T228" s="8"/>
-      <c r="U228" s="8"/>
-      <c r="V228" s="8"/>
-      <c r="W228" s="8"/>
-      <c r="X228" s="8"/>
-      <c r="Y228" s="8"/>
-      <c r="Z228" s="8"/>
-      <c r="AA228" s="8"/>
-      <c r="AB228" s="8"/>
-      <c r="AC228" s="8"/>
-      <c r="AD228" s="8"/>
-      <c r="AE228" s="8"/>
-      <c r="AF228" s="8"/>
-      <c r="AG228" s="7"/>
-    </row>
-    <row r="229" spans="1:33">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
-      <c r="K229" s="8"/>
-      <c r="L229" s="8"/>
-      <c r="M229" s="8"/>
-      <c r="N229" s="8"/>
-      <c r="O229" s="8"/>
-      <c r="P229" s="8"/>
-      <c r="Q229" s="8"/>
-      <c r="R229" s="8"/>
-      <c r="S229" s="8"/>
-      <c r="T229" s="8"/>
-      <c r="U229" s="8"/>
-      <c r="V229" s="8"/>
-      <c r="W229" s="8"/>
-      <c r="X229" s="8"/>
-      <c r="Y229" s="8"/>
-      <c r="Z229" s="8"/>
-      <c r="AA229" s="8"/>
-      <c r="AB229" s="8"/>
-      <c r="AC229" s="8"/>
-      <c r="AD229" s="8"/>
-      <c r="AE229" s="8"/>
-      <c r="AF229" s="8"/>
-      <c r="AG229" s="7"/>
-    </row>
-    <row r="230" spans="1:33">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
-      <c r="K230" s="8"/>
-      <c r="L230" s="8"/>
-      <c r="M230" s="8"/>
-      <c r="N230" s="8"/>
-      <c r="O230" s="8"/>
-      <c r="P230" s="8"/>
-      <c r="Q230" s="8"/>
-      <c r="R230" s="8"/>
-      <c r="S230" s="8"/>
-      <c r="T230" s="8"/>
-      <c r="U230" s="8"/>
-      <c r="V230" s="8"/>
-      <c r="W230" s="8"/>
-      <c r="X230" s="8"/>
-      <c r="Y230" s="8"/>
-      <c r="Z230" s="8"/>
-      <c r="AA230" s="8"/>
-      <c r="AB230" s="8"/>
-      <c r="AC230" s="8"/>
-      <c r="AD230" s="8"/>
-      <c r="AE230" s="8"/>
-      <c r="AF230" s="8"/>
-      <c r="AG230" s="7"/>
-    </row>
-    <row r="231" spans="1:33">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
-      <c r="K231" s="8"/>
-      <c r="L231" s="8"/>
-      <c r="M231" s="8"/>
-      <c r="N231" s="8"/>
-      <c r="O231" s="8"/>
-      <c r="P231" s="8"/>
-      <c r="Q231" s="8"/>
-      <c r="R231" s="8"/>
-      <c r="S231" s="8"/>
-      <c r="T231" s="8"/>
-      <c r="U231" s="8"/>
-      <c r="V231" s="8"/>
-      <c r="W231" s="8"/>
-      <c r="X231" s="8"/>
-      <c r="Y231" s="8"/>
-      <c r="Z231" s="8"/>
-      <c r="AA231" s="8"/>
-      <c r="AB231" s="8"/>
-      <c r="AC231" s="8"/>
-      <c r="AD231" s="8"/>
-      <c r="AE231" s="8"/>
-      <c r="AF231" s="8"/>
-      <c r="AG231" s="7"/>
-    </row>
-    <row r="232" spans="1:33">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-      <c r="M232" s="8"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="Q232" s="8"/>
-      <c r="R232" s="8"/>
-      <c r="S232" s="8"/>
-      <c r="T232" s="8"/>
-      <c r="U232" s="8"/>
-      <c r="V232" s="8"/>
-      <c r="W232" s="8"/>
-      <c r="X232" s="8"/>
-      <c r="Y232" s="8"/>
-      <c r="Z232" s="8"/>
-      <c r="AA232" s="8"/>
-      <c r="AB232" s="8"/>
-      <c r="AC232" s="8"/>
-      <c r="AD232" s="8"/>
-      <c r="AE232" s="8"/>
-      <c r="AF232" s="8"/>
-      <c r="AG232" s="7"/>
-    </row>
-    <row r="233" spans="1:33">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-      <c r="L233" s="8"/>
-      <c r="M233" s="8"/>
-      <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-      <c r="Q233" s="8"/>
-      <c r="R233" s="8"/>
-      <c r="S233" s="8"/>
-      <c r="T233" s="8"/>
-      <c r="U233" s="8"/>
-      <c r="V233" s="8"/>
-      <c r="W233" s="8"/>
-      <c r="X233" s="8"/>
-      <c r="Y233" s="8"/>
-      <c r="Z233" s="8"/>
-      <c r="AA233" s="8"/>
-      <c r="AB233" s="8"/>
-      <c r="AC233" s="8"/>
-      <c r="AD233" s="8"/>
-      <c r="AE233" s="8"/>
-      <c r="AF233" s="8"/>
-      <c r="AG233" s="7"/>
-    </row>
-    <row r="234" spans="1:33">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
-      <c r="K234" s="8"/>
-      <c r="L234" s="8"/>
-      <c r="M234" s="8"/>
-      <c r="N234" s="8"/>
-      <c r="O234" s="8"/>
-      <c r="P234" s="8"/>
-      <c r="Q234" s="8"/>
-      <c r="R234" s="8"/>
-      <c r="S234" s="8"/>
-      <c r="T234" s="8"/>
-      <c r="U234" s="8"/>
-      <c r="V234" s="8"/>
-      <c r="W234" s="8"/>
-      <c r="X234" s="8"/>
-      <c r="Y234" s="8"/>
-      <c r="Z234" s="8"/>
-      <c r="AA234" s="8"/>
-      <c r="AB234" s="8"/>
-      <c r="AC234" s="8"/>
-      <c r="AD234" s="8"/>
-      <c r="AE234" s="8"/>
-      <c r="AF234" s="8"/>
-      <c r="AG234" s="7"/>
-    </row>
-    <row r="235" spans="1:33">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
-      <c r="K235" s="8"/>
-      <c r="L235" s="8"/>
-      <c r="M235" s="8"/>
-      <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
-      <c r="Q235" s="8"/>
-      <c r="R235" s="8"/>
-      <c r="S235" s="8"/>
-      <c r="T235" s="8"/>
-      <c r="U235" s="8"/>
-      <c r="V235" s="8"/>
-      <c r="W235" s="8"/>
-      <c r="X235" s="8"/>
-      <c r="Y235" s="8"/>
-      <c r="Z235" s="8"/>
-      <c r="AA235" s="8"/>
-      <c r="AB235" s="8"/>
-      <c r="AC235" s="8"/>
-      <c r="AD235" s="8"/>
-      <c r="AE235" s="8"/>
-      <c r="AF235" s="8"/>
-      <c r="AG235" s="7"/>
-    </row>
-    <row r="236" spans="1:33">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
-      <c r="L236" s="8"/>
-      <c r="M236" s="8"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-      <c r="R236" s="8"/>
-      <c r="S236" s="8"/>
-      <c r="T236" s="8"/>
-      <c r="U236" s="8"/>
-      <c r="V236" s="8"/>
-      <c r="W236" s="8"/>
-      <c r="X236" s="8"/>
-      <c r="Y236" s="8"/>
-      <c r="Z236" s="8"/>
-      <c r="AA236" s="8"/>
-      <c r="AB236" s="8"/>
-      <c r="AC236" s="8"/>
-      <c r="AD236" s="8"/>
-      <c r="AE236" s="8"/>
-      <c r="AF236" s="8"/>
-      <c r="AG236" s="7"/>
-    </row>
-    <row r="237" spans="1:33">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
-      <c r="M237" s="8"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-      <c r="R237" s="8"/>
-      <c r="S237" s="8"/>
-      <c r="T237" s="8"/>
-      <c r="U237" s="8"/>
-      <c r="V237" s="8"/>
-      <c r="W237" s="8"/>
-      <c r="X237" s="8"/>
-      <c r="Y237" s="8"/>
-      <c r="Z237" s="8"/>
-      <c r="AA237" s="8"/>
-      <c r="AB237" s="8"/>
-      <c r="AC237" s="8"/>
-      <c r="AD237" s="8"/>
-      <c r="AE237" s="8"/>
-      <c r="AF237" s="8"/>
-      <c r="AG237" s="7"/>
-    </row>
-    <row r="238" spans="1:33">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
-      <c r="K238" s="8"/>
-      <c r="L238" s="8"/>
-      <c r="M238" s="8"/>
-      <c r="N238" s="8"/>
-      <c r="O238" s="8"/>
-      <c r="P238" s="8"/>
-      <c r="Q238" s="8"/>
-      <c r="R238" s="8"/>
-      <c r="S238" s="8"/>
-      <c r="T238" s="8"/>
-      <c r="U238" s="8"/>
-      <c r="V238" s="8"/>
-      <c r="W238" s="8"/>
-      <c r="X238" s="8"/>
-      <c r="Y238" s="8"/>
-      <c r="Z238" s="8"/>
-      <c r="AA238" s="8"/>
-      <c r="AB238" s="8"/>
-      <c r="AC238" s="8"/>
-      <c r="AD238" s="8"/>
-      <c r="AE238" s="8"/>
-      <c r="AF238" s="8"/>
-      <c r="AG238" s="7"/>
-    </row>
-    <row r="239" spans="1:33">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
-      <c r="K239" s="8"/>
-      <c r="L239" s="8"/>
-      <c r="M239" s="8"/>
-      <c r="N239" s="8"/>
-      <c r="O239" s="8"/>
-      <c r="P239" s="8"/>
-      <c r="Q239" s="8"/>
-      <c r="R239" s="8"/>
-      <c r="S239" s="8"/>
-      <c r="T239" s="8"/>
-      <c r="U239" s="8"/>
-      <c r="V239" s="8"/>
-      <c r="W239" s="8"/>
-      <c r="X239" s="8"/>
-      <c r="Y239" s="8"/>
-      <c r="Z239" s="8"/>
-      <c r="AA239" s="8"/>
-      <c r="AB239" s="8"/>
-      <c r="AC239" s="8"/>
-      <c r="AD239" s="8"/>
-      <c r="AE239" s="8"/>
-      <c r="AF239" s="8"/>
-      <c r="AG239" s="7"/>
-    </row>
-    <row r="240" spans="1:33">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
-      <c r="K240" s="8"/>
-      <c r="L240" s="8"/>
-      <c r="M240" s="8"/>
-      <c r="N240" s="8"/>
-      <c r="O240" s="8"/>
-      <c r="P240" s="8"/>
-      <c r="Q240" s="8"/>
-      <c r="R240" s="8"/>
-      <c r="S240" s="8"/>
-      <c r="T240" s="8"/>
-      <c r="U240" s="8"/>
-      <c r="V240" s="8"/>
-      <c r="W240" s="8"/>
-      <c r="X240" s="8"/>
-      <c r="Y240" s="8"/>
-      <c r="Z240" s="8"/>
-      <c r="AA240" s="8"/>
-      <c r="AB240" s="8"/>
-      <c r="AC240" s="8"/>
-      <c r="AD240" s="8"/>
-      <c r="AE240" s="8"/>
-      <c r="AF240" s="8"/>
-      <c r="AG240" s="7"/>
-    </row>
-    <row r="241" spans="1:33">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8"/>
-      <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
-      <c r="K241" s="8"/>
-      <c r="L241" s="8"/>
-      <c r="M241" s="8"/>
-      <c r="N241" s="8"/>
-      <c r="O241" s="8"/>
-      <c r="P241" s="8"/>
-      <c r="Q241" s="8"/>
-      <c r="R241" s="8"/>
-      <c r="S241" s="8"/>
-      <c r="T241" s="8"/>
-      <c r="U241" s="8"/>
-      <c r="V241" s="8"/>
-      <c r="W241" s="8"/>
-      <c r="X241" s="8"/>
-      <c r="Y241" s="8"/>
-      <c r="Z241" s="8"/>
-      <c r="AA241" s="8"/>
-      <c r="AB241" s="8"/>
-      <c r="AC241" s="8"/>
-      <c r="AD241" s="8"/>
-      <c r="AE241" s="8"/>
-      <c r="AF241" s="8"/>
-      <c r="AG241" s="7"/>
-    </row>
-    <row r="242" spans="1:33">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-      <c r="K242" s="8"/>
-      <c r="L242" s="8"/>
-      <c r="M242" s="8"/>
-      <c r="N242" s="8"/>
-      <c r="O242" s="8"/>
-      <c r="P242" s="8"/>
-      <c r="Q242" s="8"/>
-      <c r="R242" s="8"/>
-      <c r="S242" s="8"/>
-      <c r="T242" s="8"/>
-      <c r="U242" s="8"/>
-      <c r="V242" s="8"/>
-      <c r="W242" s="8"/>
-      <c r="X242" s="8"/>
-      <c r="Y242" s="8"/>
-      <c r="Z242" s="8"/>
-      <c r="AA242" s="8"/>
-      <c r="AB242" s="8"/>
-      <c r="AC242" s="8"/>
-      <c r="AD242" s="8"/>
-      <c r="AE242" s="8"/>
-      <c r="AF242" s="8"/>
-      <c r="AG242" s="7"/>
-    </row>
-    <row r="243" spans="1:33">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-      <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
-      <c r="K243" s="8"/>
-      <c r="L243" s="8"/>
-      <c r="M243" s="8"/>
-      <c r="N243" s="8"/>
-      <c r="O243" s="8"/>
-      <c r="P243" s="8"/>
-      <c r="Q243" s="8"/>
-      <c r="R243" s="8"/>
-      <c r="S243" s="8"/>
-      <c r="T243" s="8"/>
-      <c r="U243" s="8"/>
-      <c r="V243" s="8"/>
-      <c r="W243" s="8"/>
-      <c r="X243" s="8"/>
-      <c r="Y243" s="8"/>
-      <c r="Z243" s="8"/>
-      <c r="AA243" s="8"/>
-      <c r="AB243" s="8"/>
-      <c r="AC243" s="8"/>
-      <c r="AD243" s="8"/>
-      <c r="AE243" s="8"/>
-      <c r="AF243" s="8"/>
-      <c r="AG243" s="7"/>
-    </row>
-    <row r="244" spans="1:33">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
-      <c r="K244" s="8"/>
-      <c r="L244" s="8"/>
-      <c r="M244" s="8"/>
-      <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-      <c r="P244" s="8"/>
-      <c r="Q244" s="8"/>
-      <c r="R244" s="8"/>
-      <c r="S244" s="8"/>
-      <c r="T244" s="8"/>
-      <c r="U244" s="8"/>
-      <c r="V244" s="8"/>
-      <c r="W244" s="8"/>
-      <c r="X244" s="8"/>
-      <c r="Y244" s="8"/>
-      <c r="Z244" s="8"/>
-      <c r="AA244" s="8"/>
-      <c r="AB244" s="8"/>
-      <c r="AC244" s="8"/>
-      <c r="AD244" s="8"/>
-      <c r="AE244" s="8"/>
-      <c r="AF244" s="8"/>
-      <c r="AG244" s="7"/>
-    </row>
-    <row r="245" spans="1:33">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-      <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
-      <c r="K245" s="8"/>
-      <c r="L245" s="8"/>
-      <c r="M245" s="8"/>
-      <c r="N245" s="8"/>
-      <c r="O245" s="8"/>
-      <c r="P245" s="8"/>
-      <c r="Q245" s="8"/>
-      <c r="R245" s="8"/>
-      <c r="S245" s="8"/>
-      <c r="T245" s="8"/>
-      <c r="U245" s="8"/>
-      <c r="V245" s="8"/>
-      <c r="W245" s="8"/>
-      <c r="X245" s="8"/>
-      <c r="Y245" s="8"/>
-      <c r="Z245" s="8"/>
-      <c r="AA245" s="8"/>
-      <c r="AB245" s="8"/>
-      <c r="AC245" s="8"/>
-      <c r="AD245" s="8"/>
-      <c r="AE245" s="8"/>
-      <c r="AF245" s="8"/>
-      <c r="AG245" s="7"/>
-    </row>
-    <row r="246" spans="1:33">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-      <c r="I246" s="8"/>
-      <c r="J246" s="8"/>
-      <c r="K246" s="8"/>
-      <c r="L246" s="8"/>
-      <c r="M246" s="8"/>
-      <c r="N246" s="8"/>
-      <c r="O246" s="8"/>
-      <c r="P246" s="8"/>
-      <c r="Q246" s="8"/>
-      <c r="R246" s="8"/>
-      <c r="S246" s="8"/>
-      <c r="T246" s="8"/>
-      <c r="U246" s="8"/>
-      <c r="V246" s="8"/>
-      <c r="W246" s="8"/>
-      <c r="X246" s="8"/>
-      <c r="Y246" s="8"/>
-      <c r="Z246" s="8"/>
-      <c r="AA246" s="8"/>
-      <c r="AB246" s="8"/>
-      <c r="AC246" s="8"/>
-      <c r="AD246" s="8"/>
-      <c r="AE246" s="8"/>
-      <c r="AF246" s="8"/>
-      <c r="AG246" s="7"/>
-    </row>
-    <row r="247" spans="1:33">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="8"/>
-      <c r="I247" s="8"/>
-      <c r="J247" s="8"/>
-      <c r="K247" s="8"/>
-      <c r="L247" s="8"/>
-      <c r="M247" s="8"/>
-      <c r="N247" s="8"/>
-      <c r="O247" s="8"/>
-      <c r="P247" s="8"/>
-      <c r="Q247" s="8"/>
-      <c r="R247" s="8"/>
-      <c r="S247" s="8"/>
-      <c r="T247" s="8"/>
-      <c r="U247" s="8"/>
-      <c r="V247" s="8"/>
-      <c r="W247" s="8"/>
-      <c r="X247" s="8"/>
-      <c r="Y247" s="8"/>
-      <c r="Z247" s="8"/>
-      <c r="AA247" s="8"/>
-      <c r="AB247" s="8"/>
-      <c r="AC247" s="8"/>
-      <c r="AD247" s="8"/>
-      <c r="AE247" s="8"/>
-      <c r="AF247" s="8"/>
-      <c r="AG247" s="7"/>
-    </row>
-    <row r="248" spans="1:33">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-      <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
-      <c r="K248" s="8"/>
-      <c r="L248" s="8"/>
-      <c r="M248" s="8"/>
-      <c r="N248" s="8"/>
-      <c r="O248" s="8"/>
-      <c r="P248" s="8"/>
-      <c r="Q248" s="8"/>
-      <c r="R248" s="8"/>
-      <c r="S248" s="8"/>
-      <c r="T248" s="8"/>
-      <c r="U248" s="8"/>
-      <c r="V248" s="8"/>
-      <c r="W248" s="8"/>
-      <c r="X248" s="8"/>
-      <c r="Y248" s="8"/>
-      <c r="Z248" s="8"/>
-      <c r="AA248" s="8"/>
-      <c r="AB248" s="8"/>
-      <c r="AC248" s="8"/>
-      <c r="AD248" s="8"/>
-      <c r="AE248" s="8"/>
-      <c r="AF248" s="8"/>
-      <c r="AG248" s="7"/>
-    </row>
-    <row r="249" spans="1:33">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-      <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
-      <c r="K249" s="8"/>
-      <c r="L249" s="8"/>
-      <c r="M249" s="8"/>
-      <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
-      <c r="P249" s="8"/>
-      <c r="Q249" s="8"/>
-      <c r="R249" s="8"/>
-      <c r="S249" s="8"/>
-      <c r="T249" s="8"/>
-      <c r="U249" s="8"/>
-      <c r="V249" s="8"/>
-      <c r="W249" s="8"/>
-      <c r="X249" s="8"/>
-      <c r="Y249" s="8"/>
-      <c r="Z249" s="8"/>
-      <c r="AA249" s="8"/>
-      <c r="AB249" s="8"/>
-      <c r="AC249" s="8"/>
-      <c r="AD249" s="8"/>
-      <c r="AE249" s="8"/>
-      <c r="AF249" s="8"/>
-      <c r="AG249" s="7"/>
-    </row>
-    <row r="250" spans="1:33">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
-      <c r="J250" s="8"/>
-      <c r="K250" s="8"/>
-      <c r="L250" s="8"/>
-      <c r="M250" s="8"/>
-      <c r="N250" s="8"/>
-      <c r="O250" s="8"/>
-      <c r="P250" s="8"/>
-      <c r="Q250" s="8"/>
-      <c r="R250" s="8"/>
-      <c r="S250" s="8"/>
-      <c r="T250" s="8"/>
-      <c r="U250" s="8"/>
-      <c r="V250" s="8"/>
-      <c r="W250" s="8"/>
-      <c r="X250" s="8"/>
-      <c r="Y250" s="8"/>
-      <c r="Z250" s="8"/>
-      <c r="AA250" s="8"/>
-      <c r="AB250" s="8"/>
-      <c r="AC250" s="8"/>
-      <c r="AD250" s="8"/>
-      <c r="AE250" s="8"/>
-      <c r="AF250" s="8"/>
-      <c r="AG250" s="7"/>
-    </row>
-    <row r="251" spans="1:33">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-      <c r="I251" s="8"/>
-      <c r="J251" s="8"/>
-      <c r="K251" s="8"/>
-      <c r="L251" s="8"/>
-      <c r="M251" s="8"/>
-      <c r="N251" s="8"/>
-      <c r="O251" s="8"/>
-      <c r="P251" s="8"/>
-      <c r="Q251" s="8"/>
-      <c r="R251" s="8"/>
-      <c r="S251" s="8"/>
-      <c r="T251" s="8"/>
-      <c r="U251" s="8"/>
-      <c r="V251" s="8"/>
-      <c r="W251" s="8"/>
-      <c r="X251" s="8"/>
-      <c r="Y251" s="8"/>
-      <c r="Z251" s="8"/>
-      <c r="AA251" s="8"/>
-      <c r="AB251" s="8"/>
-      <c r="AC251" s="8"/>
-      <c r="AD251" s="8"/>
-      <c r="AE251" s="8"/>
-      <c r="AF251" s="8"/>
-      <c r="AG251" s="7"/>
-    </row>
-    <row r="252" spans="1:33">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="8"/>
-      <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
-      <c r="K252" s="8"/>
-      <c r="L252" s="8"/>
-      <c r="M252" s="8"/>
-      <c r="N252" s="8"/>
-      <c r="O252" s="8"/>
-      <c r="P252" s="8"/>
-      <c r="Q252" s="8"/>
-      <c r="R252" s="8"/>
-      <c r="S252" s="8"/>
-      <c r="T252" s="8"/>
-      <c r="U252" s="8"/>
-      <c r="V252" s="8"/>
-      <c r="W252" s="8"/>
-      <c r="X252" s="8"/>
-      <c r="Y252" s="8"/>
-      <c r="Z252" s="8"/>
-      <c r="AA252" s="8"/>
-      <c r="AB252" s="8"/>
-      <c r="AC252" s="8"/>
-      <c r="AD252" s="8"/>
-      <c r="AE252" s="8"/>
-      <c r="AF252" s="8"/>
-      <c r="AG252" s="7"/>
-    </row>
-    <row r="253" spans="1:33">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
-      <c r="K253" s="8"/>
-      <c r="L253" s="8"/>
-      <c r="M253" s="8"/>
-      <c r="N253" s="8"/>
-      <c r="O253" s="8"/>
-      <c r="P253" s="8"/>
-      <c r="Q253" s="8"/>
-      <c r="R253" s="8"/>
-      <c r="S253" s="8"/>
-      <c r="T253" s="8"/>
-      <c r="U253" s="8"/>
-      <c r="V253" s="8"/>
-      <c r="W253" s="8"/>
-      <c r="X253" s="8"/>
-      <c r="Y253" s="8"/>
-      <c r="Z253" s="8"/>
-      <c r="AA253" s="8"/>
-      <c r="AB253" s="8"/>
-      <c r="AC253" s="8"/>
-      <c r="AD253" s="8"/>
-      <c r="AE253" s="8"/>
-      <c r="AF253" s="8"/>
-      <c r="AG253" s="7"/>
-    </row>
-    <row r="254" spans="1:33">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-      <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
-      <c r="K254" s="8"/>
-      <c r="L254" s="8"/>
-      <c r="M254" s="8"/>
-      <c r="N254" s="8"/>
-      <c r="O254" s="8"/>
-      <c r="P254" s="8"/>
-      <c r="Q254" s="8"/>
-      <c r="R254" s="8"/>
-      <c r="S254" s="8"/>
-      <c r="T254" s="8"/>
-      <c r="U254" s="8"/>
-      <c r="V254" s="8"/>
-      <c r="W254" s="8"/>
-      <c r="X254" s="8"/>
-      <c r="Y254" s="8"/>
-      <c r="Z254" s="8"/>
-      <c r="AA254" s="8"/>
-      <c r="AB254" s="8"/>
-      <c r="AC254" s="8"/>
-      <c r="AD254" s="8"/>
-      <c r="AE254" s="8"/>
-      <c r="AF254" s="8"/>
-      <c r="AG254" s="7"/>
-    </row>
-    <row r="255" spans="1:33">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-      <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
-      <c r="K255" s="8"/>
-      <c r="L255" s="8"/>
-      <c r="M255" s="8"/>
-      <c r="N255" s="8"/>
-      <c r="O255" s="8"/>
-      <c r="P255" s="8"/>
-      <c r="Q255" s="8"/>
-      <c r="R255" s="8"/>
-      <c r="S255" s="8"/>
-      <c r="T255" s="8"/>
-      <c r="U255" s="8"/>
-      <c r="V255" s="8"/>
-      <c r="W255" s="8"/>
-      <c r="X255" s="8"/>
-      <c r="Y255" s="8"/>
-      <c r="Z255" s="8"/>
-      <c r="AA255" s="8"/>
-      <c r="AB255" s="8"/>
-      <c r="AC255" s="8"/>
-      <c r="AD255" s="8"/>
-      <c r="AE255" s="8"/>
-      <c r="AF255" s="8"/>
-      <c r="AG255" s="7"/>
-    </row>
-    <row r="256" spans="1:33">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-      <c r="I256" s="8"/>
-      <c r="J256" s="8"/>
-      <c r="K256" s="8"/>
-      <c r="L256" s="8"/>
-      <c r="M256" s="8"/>
-      <c r="N256" s="8"/>
-      <c r="O256" s="8"/>
-      <c r="P256" s="8"/>
-      <c r="Q256" s="8"/>
-      <c r="R256" s="8"/>
-      <c r="S256" s="8"/>
-      <c r="T256" s="8"/>
-      <c r="U256" s="8"/>
-      <c r="V256" s="8"/>
-      <c r="W256" s="8"/>
-      <c r="X256" s="8"/>
-      <c r="Y256" s="8"/>
-      <c r="Z256" s="8"/>
-      <c r="AA256" s="8"/>
-      <c r="AB256" s="8"/>
-      <c r="AC256" s="8"/>
-      <c r="AD256" s="8"/>
-      <c r="AE256" s="8"/>
-      <c r="AF256" s="8"/>
-      <c r="AG256" s="7"/>
-    </row>
-    <row r="257" spans="1:33">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8"/>
-      <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
-      <c r="K257" s="8"/>
-      <c r="L257" s="8"/>
-      <c r="M257" s="8"/>
-      <c r="N257" s="8"/>
-      <c r="O257" s="8"/>
-      <c r="P257" s="8"/>
-      <c r="Q257" s="8"/>
-      <c r="R257" s="8"/>
-      <c r="S257" s="8"/>
-      <c r="T257" s="8"/>
-      <c r="U257" s="8"/>
-      <c r="V257" s="8"/>
-      <c r="W257" s="8"/>
-      <c r="X257" s="8"/>
-      <c r="Y257" s="8"/>
-      <c r="Z257" s="8"/>
-      <c r="AA257" s="8"/>
-      <c r="AB257" s="8"/>
-      <c r="AC257" s="8"/>
-      <c r="AD257" s="8"/>
-      <c r="AE257" s="8"/>
-      <c r="AF257" s="8"/>
-      <c r="AG257" s="7"/>
-    </row>
-    <row r="258" spans="1:33">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
-      <c r="K258" s="8"/>
-      <c r="L258" s="8"/>
-      <c r="M258" s="8"/>
-      <c r="N258" s="8"/>
-      <c r="O258" s="8"/>
-      <c r="P258" s="8"/>
-      <c r="Q258" s="8"/>
-      <c r="R258" s="8"/>
-      <c r="S258" s="8"/>
-      <c r="T258" s="8"/>
-      <c r="U258" s="8"/>
-      <c r="V258" s="8"/>
-      <c r="W258" s="8"/>
-      <c r="X258" s="8"/>
-      <c r="Y258" s="8"/>
-      <c r="Z258" s="8"/>
-      <c r="AA258" s="8"/>
-      <c r="AB258" s="8"/>
-      <c r="AC258" s="8"/>
-      <c r="AD258" s="8"/>
-      <c r="AE258" s="8"/>
-      <c r="AF258" s="8"/>
-      <c r="AG258" s="7"/>
-    </row>
-    <row r="259" spans="1:33">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
-      <c r="K259" s="8"/>
-      <c r="L259" s="8"/>
-      <c r="M259" s="8"/>
-      <c r="N259" s="8"/>
-      <c r="O259" s="8"/>
-      <c r="P259" s="8"/>
-      <c r="Q259" s="8"/>
-      <c r="R259" s="8"/>
-      <c r="S259" s="8"/>
-      <c r="T259" s="8"/>
-      <c r="U259" s="8"/>
-      <c r="V259" s="8"/>
-      <c r="W259" s="8"/>
-      <c r="X259" s="8"/>
-      <c r="Y259" s="8"/>
-      <c r="Z259" s="8"/>
-      <c r="AA259" s="8"/>
-      <c r="AB259" s="8"/>
-      <c r="AC259" s="8"/>
-      <c r="AD259" s="8"/>
-      <c r="AE259" s="8"/>
-      <c r="AF259" s="8"/>
-      <c r="AG259" s="7"/>
-    </row>
-    <row r="260" spans="1:33">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
-      <c r="H260" s="8"/>
-      <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
-      <c r="K260" s="8"/>
-      <c r="L260" s="8"/>
-      <c r="M260" s="8"/>
-      <c r="N260" s="8"/>
-      <c r="O260" s="8"/>
-      <c r="P260" s="8"/>
-      <c r="Q260" s="8"/>
-      <c r="R260" s="8"/>
-      <c r="S260" s="8"/>
-      <c r="T260" s="8"/>
-      <c r="U260" s="8"/>
-      <c r="V260" s="8"/>
-      <c r="W260" s="8"/>
-      <c r="X260" s="8"/>
-      <c r="Y260" s="8"/>
-      <c r="Z260" s="8"/>
-      <c r="AA260" s="8"/>
-      <c r="AB260" s="8"/>
-      <c r="AC260" s="8"/>
-      <c r="AD260" s="8"/>
-      <c r="AE260" s="8"/>
-      <c r="AF260" s="8"/>
-      <c r="AG260" s="7"/>
-    </row>
-    <row r="261" spans="1:33">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="8"/>
-      <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
-      <c r="K261" s="8"/>
-      <c r="L261" s="8"/>
-      <c r="M261" s="8"/>
-      <c r="N261" s="8"/>
-      <c r="O261" s="8"/>
-      <c r="P261" s="8"/>
-      <c r="Q261" s="8"/>
-      <c r="R261" s="8"/>
-      <c r="S261" s="8"/>
-      <c r="T261" s="8"/>
-      <c r="U261" s="8"/>
-      <c r="V261" s="8"/>
-      <c r="W261" s="8"/>
-      <c r="X261" s="8"/>
-      <c r="Y261" s="8"/>
-      <c r="Z261" s="8"/>
-      <c r="AA261" s="8"/>
-      <c r="AB261" s="8"/>
-      <c r="AC261" s="8"/>
-      <c r="AD261" s="8"/>
-      <c r="AE261" s="8"/>
-      <c r="AF261" s="8"/>
-      <c r="AG261" s="7"/>
-    </row>
-    <row r="262" spans="1:33">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="8"/>
-      <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
-      <c r="K262" s="8"/>
-      <c r="L262" s="8"/>
-      <c r="M262" s="8"/>
-      <c r="N262" s="8"/>
-      <c r="O262" s="8"/>
-      <c r="P262" s="8"/>
-      <c r="Q262" s="8"/>
-      <c r="R262" s="8"/>
-      <c r="S262" s="8"/>
-      <c r="T262" s="8"/>
-      <c r="U262" s="8"/>
-      <c r="V262" s="8"/>
-      <c r="W262" s="8"/>
-      <c r="X262" s="8"/>
-      <c r="Y262" s="8"/>
-      <c r="Z262" s="8"/>
-      <c r="AA262" s="8"/>
-      <c r="AB262" s="8"/>
-      <c r="AC262" s="8"/>
-      <c r="AD262" s="8"/>
-      <c r="AE262" s="8"/>
-      <c r="AF262" s="8"/>
-      <c r="AG262" s="7"/>
-    </row>
-    <row r="263" spans="1:33">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
-      <c r="K263" s="8"/>
-      <c r="L263" s="8"/>
-      <c r="M263" s="8"/>
-      <c r="N263" s="8"/>
-      <c r="O263" s="8"/>
-      <c r="P263" s="8"/>
-      <c r="Q263" s="8"/>
-      <c r="R263" s="8"/>
-      <c r="S263" s="8"/>
-      <c r="T263" s="8"/>
-      <c r="U263" s="8"/>
-      <c r="V263" s="8"/>
-      <c r="W263" s="8"/>
-      <c r="X263" s="8"/>
-      <c r="Y263" s="8"/>
-      <c r="Z263" s="8"/>
-      <c r="AA263" s="8"/>
-      <c r="AB263" s="8"/>
-      <c r="AC263" s="8"/>
-      <c r="AD263" s="8"/>
-      <c r="AE263" s="8"/>
-      <c r="AF263" s="8"/>
-      <c r="AG263" s="7"/>
-    </row>
-    <row r="264" spans="1:33">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="8"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-      <c r="H264" s="8"/>
-      <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
-      <c r="K264" s="8"/>
-      <c r="L264" s="8"/>
-      <c r="M264" s="8"/>
-      <c r="N264" s="8"/>
-      <c r="O264" s="8"/>
-      <c r="P264" s="8"/>
-      <c r="Q264" s="8"/>
-      <c r="R264" s="8"/>
-      <c r="S264" s="8"/>
-      <c r="T264" s="8"/>
-      <c r="U264" s="8"/>
-      <c r="V264" s="8"/>
-      <c r="W264" s="8"/>
-      <c r="X264" s="8"/>
-      <c r="Y264" s="8"/>
-      <c r="Z264" s="8"/>
-      <c r="AA264" s="8"/>
-      <c r="AB264" s="8"/>
-      <c r="AC264" s="8"/>
-      <c r="AD264" s="8"/>
-      <c r="AE264" s="8"/>
-      <c r="AF264" s="8"/>
-      <c r="AG264" s="7"/>
-    </row>
-    <row r="265" spans="1:33">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
-      <c r="C265" s="8"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-      <c r="H265" s="8"/>
-      <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
-      <c r="K265" s="8"/>
-      <c r="L265" s="8"/>
-      <c r="M265" s="8"/>
-      <c r="N265" s="8"/>
-      <c r="O265" s="8"/>
-      <c r="P265" s="8"/>
-      <c r="Q265" s="8"/>
-      <c r="R265" s="8"/>
-      <c r="S265" s="8"/>
-      <c r="T265" s="8"/>
-      <c r="U265" s="8"/>
-      <c r="V265" s="8"/>
-      <c r="W265" s="8"/>
-      <c r="X265" s="8"/>
-      <c r="Y265" s="8"/>
-      <c r="Z265" s="8"/>
-      <c r="AA265" s="8"/>
-      <c r="AB265" s="8"/>
-      <c r="AC265" s="8"/>
-      <c r="AD265" s="8"/>
-      <c r="AE265" s="8"/>
-      <c r="AF265" s="8"/>
-      <c r="AG265" s="7"/>
-    </row>
-    <row r="266" spans="1:33">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-      <c r="H266" s="8"/>
-      <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
-      <c r="K266" s="8"/>
-      <c r="L266" s="8"/>
-      <c r="M266" s="8"/>
-      <c r="N266" s="8"/>
-      <c r="O266" s="8"/>
-      <c r="P266" s="8"/>
-      <c r="Q266" s="8"/>
-      <c r="R266" s="8"/>
-      <c r="S266" s="8"/>
-      <c r="T266" s="8"/>
-      <c r="U266" s="8"/>
-      <c r="V266" s="8"/>
-      <c r="W266" s="8"/>
-      <c r="X266" s="8"/>
-      <c r="Y266" s="8"/>
-      <c r="Z266" s="8"/>
-      <c r="AA266" s="8"/>
-      <c r="AB266" s="8"/>
-      <c r="AC266" s="8"/>
-      <c r="AD266" s="8"/>
-      <c r="AE266" s="8"/>
-      <c r="AF266" s="8"/>
-      <c r="AG266" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
